--- a/PoA-min-attack-cost.xlsx
+++ b/PoA-min-attack-cost.xlsx
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1284,7 @@
         <v>0.5</v>
       </c>
       <c r="C28" s="2">
-        <f>C27+IF(K27&gt;0, (C27-C26)*IF(C27&gt;C26,1,1/2), -(C27-C26)*IF(C27&lt;C26,1,1/2))</f>
+        <f t="shared" ref="C28:C41" si="9">C27+IF(K27&gt;0, (C27-C26)*IF(C27&gt;C26,1,1/2), -(C27-C26)*IF(C27&lt;C26,1,1/2))</f>
         <v>0.1</v>
       </c>
       <c r="D28" s="2">
@@ -1330,7 +1330,7 @@
         <v>0.5</v>
       </c>
       <c r="C29" s="2">
-        <f>C28+IF(K28&gt;0, (C28-C27)*IF(C28&gt;C27,1,1/2), -(C28-C27)*IF(C28&lt;C27,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.13</v>
       </c>
       <c r="D29" s="2">
@@ -1376,7 +1376,7 @@
         <v>0.5</v>
       </c>
       <c r="C30" s="2">
-        <f>C29+IF(K29&gt;0, (C29-C28)*IF(C29&gt;C28,1,1/2), -(C29-C28)*IF(C29&lt;C28,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.16</v>
       </c>
       <c r="D30" s="2">
@@ -1422,7 +1422,7 @@
         <v>0.5</v>
       </c>
       <c r="C31" s="2">
-        <f>C30+IF(K30&gt;0, (C30-C29)*IF(C30&gt;C29,1,1/2), -(C30-C29)*IF(C30&lt;C29,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.14500000000000002</v>
       </c>
       <c r="D31" s="2">
@@ -1468,7 +1468,7 @@
         <v>0.5</v>
       </c>
       <c r="C32" s="2">
-        <f>C31+IF(K31&gt;0, (C31-C30)*IF(C31&gt;C30,1,1/2), -(C31-C30)*IF(C31&lt;C30,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.13750000000000001</v>
       </c>
       <c r="D32" s="2">
@@ -1514,7 +1514,7 @@
         <v>0.5</v>
       </c>
       <c r="C33" s="2">
-        <f>C32+IF(K32&gt;0, (C32-C31)*IF(C32&gt;C31,1,1/2), -(C32-C31)*IF(C32&lt;C31,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.13375000000000001</v>
       </c>
       <c r="D33" s="2">
@@ -1560,7 +1560,7 @@
         <v>0.5</v>
       </c>
       <c r="C34" s="2">
-        <f>C33+IF(K33&gt;0, (C33-C32)*IF(C33&gt;C32,1,1/2), -(C33-C32)*IF(C33&lt;C32,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.13187500000000002</v>
       </c>
       <c r="D34" s="2">
@@ -1606,7 +1606,7 @@
         <v>0.5</v>
       </c>
       <c r="C35" s="2">
-        <f>C34+IF(K34&gt;0, (C34-C33)*IF(C34&gt;C33,1,1/2), -(C34-C33)*IF(C34&lt;C33,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.13093750000000004</v>
       </c>
       <c r="D35" s="2">
@@ -1652,7 +1652,7 @@
         <v>0.5</v>
       </c>
       <c r="C36" s="2">
-        <f>C35+IF(K35&gt;0, (C35-C34)*IF(C35&gt;C34,1,1/2), -(C35-C34)*IF(C35&lt;C34,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.13187500000000002</v>
       </c>
       <c r="D36" s="2">
@@ -1698,7 +1698,7 @@
         <v>0.5</v>
       </c>
       <c r="C37" s="2">
-        <f>C36+IF(K36&gt;0, (C36-C35)*IF(C36&gt;C35,1,1/2), -(C36-C35)*IF(C36&lt;C35,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.1328125</v>
       </c>
       <c r="D37" s="2">
@@ -1744,7 +1744,7 @@
         <v>0.5</v>
       </c>
       <c r="C38" s="2">
-        <f>C37+IF(K37&gt;0, (C37-C36)*IF(C37&gt;C36,1,1/2), -(C37-C36)*IF(C37&lt;C36,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.13234375000000001</v>
       </c>
       <c r="D38" s="2">
@@ -1790,7 +1790,7 @@
         <v>0.5</v>
       </c>
       <c r="C39" s="2">
-        <f>C38+IF(K38&gt;0, (C38-C37)*IF(C38&gt;C37,1,1/2), -(C38-C37)*IF(C38&lt;C37,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.13210937500000003</v>
       </c>
       <c r="D39" s="2">
@@ -1836,7 +1836,7 @@
         <v>0.5</v>
       </c>
       <c r="C40" s="2">
-        <f>C39+IF(K39&gt;0, (C39-C38)*IF(C39&gt;C38,1,1/2), -(C39-C38)*IF(C39&lt;C38,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.13199218750000002</v>
       </c>
       <c r="D40" s="2">
@@ -1882,7 +1882,7 @@
         <v>0.5</v>
       </c>
       <c r="C41" s="2">
-        <f>C40+IF(K40&gt;0, (C40-C39)*IF(C40&gt;C39,1,1/2), -(C40-C39)*IF(C40&lt;C39,1,1/2))</f>
+        <f t="shared" si="9"/>
         <v>0.13193359375000002</v>
       </c>
       <c r="D41" s="2">
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" ref="B42:B92" si="9">B41</f>
+        <f t="shared" ref="B42:B92" si="10">B41</f>
         <v>0.5</v>
       </c>
       <c r="C42" s="2">
@@ -1964,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C43" s="12">
@@ -1972,23 +1972,23 @@
         <v>0.04</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" ref="D43:D58" si="10">C43/B43</f>
+        <f t="shared" ref="D43:D58" si="11">C43/B43</f>
         <v>0.08</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" ref="E43:E58" si="11">POWER(1/D43-1,A43)</f>
+        <f t="shared" ref="E43:E58" si="12">POWER(1/D43-1,A43)</f>
         <v>1520.875</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" ref="F43:F58" si="12">POWER((1/C43-1)*B43,A43)</f>
+        <f t="shared" ref="F43:F58" si="13">POWER((1/C43-1)*B43,A43)</f>
         <v>1728</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" ref="G43:G58" si="13">E43/(E43+1)</f>
+        <f t="shared" ref="G43:G58" si="14">E43/(E43+1)</f>
         <v>0.99934291581108825</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" ref="H43:H58" si="14">F43/(F43+1)</f>
+        <f t="shared" ref="H43:H58" si="15">F43/(F43+1)</f>
         <v>0.99942163100057835</v>
       </c>
       <c r="I43" s="7">
@@ -2010,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C44" s="12">
@@ -2018,23 +2018,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>231.79883381924193</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>293.1330174927113</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.99570444583594242</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.99660017767293063</v>
       </c>
       <c r="I44" s="7">
@@ -2056,31 +2056,31 @@
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C45" s="2">
-        <f>C44+IF(K44&gt;0, (C44-C43)*IF(C44&gt;C43,1,1/2), -(C44-C43)*IF(C44&lt;C43,1,1/2))</f>
+        <f t="shared" ref="C45:C58" si="16">C44+IF(K44&gt;0, (C44-C43)*IF(C44&gt;C43,1,1/2), -(C44-C43)*IF(C44&lt;C43,1,1/2))</f>
         <v>0.1</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91.125</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98461538461538467</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98914518317503397</v>
       </c>
       <c r="I45" s="7">
@@ -2102,31 +2102,31 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C46" s="2">
-        <f>C45+IF(K45&gt;0, (C45-C44)*IF(C45&gt;C44,1,1/2), -(C45-C44)*IF(C45&lt;C44,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.13</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.055530268548008</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37.466033227127888</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.95842951750236516</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.97400303810649347</v>
       </c>
       <c r="I46" s="7">
@@ -2148,31 +2148,31 @@
         <v>3</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C47" s="2">
-        <f>C46+IF(K46&gt;0, (C46-C45)*IF(C46&gt;C45,1,1/2), -(C46-C45)*IF(C46&lt;C45,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.115</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.23</v>
       </c>
       <c r="E47" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37.522232267609098</v>
       </c>
       <c r="F47" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>56.970011095586408</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97404096436953269</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98274970142146245</v>
       </c>
       <c r="I47" s="7">
@@ -2194,31 +2194,31 @@
         <v>3</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C48" s="2">
-        <f>C47+IF(K47&gt;0, (C47-C46)*IF(C47&gt;C46,1,1/2), -(C47-C46)*IF(C47&lt;C46,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10750000000000001</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.21500000000000002</v>
       </c>
       <c r="E48" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.673613644081627</v>
       </c>
       <c r="F48" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71.533470323367723</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97986858763356455</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98621326133243292</v>
       </c>
       <c r="I48" s="7">
@@ -2240,31 +2240,31 @@
         <v>3</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C49" s="2">
-        <f>C48+IF(K48&gt;0, (C48-C47)*IF(C48&gt;C47,1,1/2), -(C48-C47)*IF(C48&lt;C47,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10375000000000001</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20750000000000002</v>
       </c>
       <c r="E49" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55.711327819625119</v>
       </c>
       <c r="F49" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>80.581102097459336</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98236683854095996</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98774225924521875</v>
       </c>
       <c r="I49" s="7">
@@ -2286,31 +2286,31 @@
         <v>3</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C50" s="2">
-        <f>C49+IF(K49&gt;0, (C49-C48)*IF(C49&gt;C48,1,1/2), -(C49-C48)*IF(C49&lt;C48,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10187500000000001</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20375000000000001</v>
       </c>
       <c r="E50" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59.683664965882336</v>
       </c>
       <c r="F50" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>85.648054856356197</v>
       </c>
       <c r="G50" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98352110076802013</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98845906002555062</v>
       </c>
       <c r="I50" s="7">
@@ -2332,31 +2332,31 @@
         <v>3</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C51" s="2">
-        <f>C50+IF(K50&gt;0, (C50-C49)*IF(C50&gt;C49,1,1/2), -(C50-C49)*IF(C50&lt;C49,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10093750000000001</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20187500000000003</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>61.796677348422669</v>
       </c>
       <c r="F51" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88.33280704390522</v>
       </c>
       <c r="G51" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98407559058496719</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98880590420148196</v>
       </c>
       <c r="I51" s="7">
@@ -2378,31 +2378,31 @@
         <v>3</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C52" s="2">
-        <f>C51+IF(K51&gt;0, (C51-C50)*IF(C51&gt;C50,1,1/2), -(C51-C50)*IF(C51&lt;C50,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10046875000000002</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20093750000000005</v>
       </c>
       <c r="E52" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>62.886766568951401</v>
       </c>
       <c r="F52" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>89.715148969199063</v>
       </c>
       <c r="G52" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9843473061213589</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98897648285470452</v>
       </c>
       <c r="I52" s="7">
@@ -2424,31 +2424,31 @@
         <v>3</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C53" s="2">
-        <f>C52+IF(K52&gt;0, (C52-C51)*IF(C52&gt;C51,1,1/2), -(C52-C51)*IF(C52&lt;C51,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10023437500000003</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20046875000000006</v>
       </c>
       <c r="E53" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63.440453930162057</v>
       </c>
       <c r="F53" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90.416594269475411</v>
       </c>
       <c r="G53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98448179770608457</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9890610669978338</v>
       </c>
       <c r="I53" s="7">
@@ -2470,31 +2470,31 @@
         <v>3</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C54" s="2">
-        <f>C53+IF(K53&gt;0, (C53-C52)*IF(C53&gt;C52,1,1/2), -(C53-C52)*IF(C53&lt;C52,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10011718750000004</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20023437500000008</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63.719490027001662</v>
       </c>
       <c r="F54" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90.769921818504983</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98454870395945981</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98910318348120951</v>
       </c>
       <c r="I54" s="7">
@@ -2516,31 +2516,31 @@
         <v>3</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C55" s="2">
-        <f>C54+IF(K54&gt;0, (C54-C53)*IF(C54&gt;C53,1,1/2), -(C54-C53)*IF(C54&lt;C53,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10005859375000004</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20011718750000007</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63.859560200340553</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90.947241418253398</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98458207245144491</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98912419791420214</v>
       </c>
       <c r="I55" s="7">
@@ -2562,31 +2562,31 @@
         <v>3</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C56" s="2">
-        <f>C55+IF(K55&gt;0, (C55-C54)*IF(C55&gt;C54,1,1/2), -(C55-C54)*IF(C55&lt;C54,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10002929687500003</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20005859375000007</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63.92973382431726</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91.036065753374288</v>
       </c>
       <c r="G56" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98459873556996658</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9891346941895619</v>
       </c>
       <c r="I56" s="7">
@@ -2608,31 +2608,31 @@
         <v>3</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C57" s="2">
-        <f>C56+IF(K56&gt;0, (C56-C55)*IF(C56&gt;C55,1,1/2), -(C56-C55)*IF(C56&lt;C55,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10001464843750003</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20002929687500007</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63.964855334110354</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91.080519127357334</v>
       </c>
       <c r="G57" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98460706185125701</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9891399395933369</v>
       </c>
       <c r="I57" s="7">
@@ -2654,31 +2654,31 @@
         <v>3</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C58" s="2">
-        <f>C57+IF(K57&gt;0, (C57-C56)*IF(C57&gt;C56,1,1/2), -(C57-C56)*IF(C57&lt;C56,1,1/2))</f>
+        <f t="shared" si="16"/>
         <v>0.10000732421875003</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20001464843750005</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63.982424771406585</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91.102756125046255</v>
       </c>
       <c r="G58" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98461122367289655</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98914256161192049</v>
       </c>
       <c r="I58" s="7">
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C59" s="2">
@@ -2740,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C60" s="12">
@@ -2748,23 +2748,23 @@
         <v>0.04</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" ref="D60:D75" si="15">C60/B60</f>
+        <f t="shared" ref="D60:D75" si="17">C60/B60</f>
         <v>0.08</v>
       </c>
       <c r="E60" s="9">
-        <f t="shared" ref="E60:E75" si="16">POWER(1/D60-1,A60)</f>
+        <f t="shared" ref="E60:E75" si="18">POWER(1/D60-1,A60)</f>
         <v>132.25</v>
       </c>
       <c r="F60" s="9">
-        <f t="shared" ref="F60:F75" si="17">POWER((1/C60-1)*B60,A60)</f>
+        <f t="shared" ref="F60:F75" si="19">POWER((1/C60-1)*B60,A60)</f>
         <v>144</v>
       </c>
       <c r="G60" s="10">
-        <f t="shared" ref="G60:G75" si="18">E60/(E60+1)</f>
+        <f t="shared" ref="G60:G75" si="20">E60/(E60+1)</f>
         <v>0.99249530956848031</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" ref="H60:H75" si="19">F60/(F60+1)</f>
+        <f t="shared" ref="H60:H75" si="21">F60/(F60+1)</f>
         <v>0.99310344827586206</v>
       </c>
       <c r="I60" s="7">
@@ -2786,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C61" s="12">
@@ -2794,23 +2794,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="E61" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>37.734693877551017</v>
       </c>
       <c r="F61" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44.127551020408156</v>
       </c>
       <c r="G61" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.97418335089567965</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.97784058790276995</v>
       </c>
       <c r="I61" s="7">
@@ -2832,31 +2832,31 @@
         <v>2</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C62" s="2">
-        <f>C61+IF(K61&gt;0, (C61-C60)*IF(C61&gt;C60,1,1/2), -(C61-C60)*IF(C61&lt;C60,1,1/2))</f>
+        <f t="shared" ref="C62:C75" si="22">C61+IF(K61&gt;0, (C61-C60)*IF(C61&gt;C60,1,1/2), -(C61-C60)*IF(C61&lt;C60,1,1/2))</f>
         <v>5.5000000000000007E-2</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="E62" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>65.462809917355358</v>
       </c>
       <c r="F62" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>73.803719008264451</v>
       </c>
       <c r="G62" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98495399154439189</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98663168070708462</v>
       </c>
       <c r="I62" s="7">
@@ -2878,31 +2878,31 @@
         <v>2</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C63" s="2">
-        <f>C62+IF(K62&gt;0, (C62-C61)*IF(C62&gt;C61,1,1/2), -(C62-C61)*IF(C62&lt;C61,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.7500000000000007E-2</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.5000000000000015E-2</v>
       </c>
       <c r="E63" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>90.750692520775601</v>
       </c>
       <c r="F63" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100.52700831024929</v>
       </c>
       <c r="G63" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98910089970412418</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99015040414719824</v>
       </c>
       <c r="I63" s="7">
@@ -2924,31 +2924,31 @@
         <v>2</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C64" s="2">
-        <f>C63+IF(K63&gt;0, (C63-C62)*IF(C63&gt;C62,1,1/2), -(C63-C62)*IF(C63&lt;C62,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.3750000000000011E-2</v>
       </c>
       <c r="D64" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.7500000000000022E-2</v>
       </c>
       <c r="E64" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>108.75510204081625</v>
       </c>
       <c r="F64" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>119.43367346938768</v>
       </c>
       <c r="G64" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.99088880624767572</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99169667443338272</v>
       </c>
       <c r="I64" s="7">
@@ -2970,31 +2970,31 @@
         <v>2</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C65" s="2">
-        <f>C64+IF(K64&gt;0, (C64-C63)*IF(C64&gt;C63,1,1/2), -(C64-C63)*IF(C64&lt;C63,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.7500000000000007E-2</v>
       </c>
       <c r="D65" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.5000000000000015E-2</v>
       </c>
       <c r="E65" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>90.750692520775601</v>
       </c>
       <c r="F65" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100.52700831024929</v>
       </c>
       <c r="G65" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98910089970412418</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99015040414719824</v>
       </c>
       <c r="I65" s="7">
@@ -3016,31 +3016,31 @@
         <v>2</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C66" s="2">
-        <f>C65+IF(K65&gt;0, (C65-C64)*IF(C65&gt;C64,1,1/2), -(C65-C64)*IF(C65&lt;C64,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>5.1250000000000004E-2</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.10250000000000001</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>76.669244497323021</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>85.675342058298625</v>
       </c>
       <c r="G66" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98712489085645139</v>
       </c>
       <c r="H66" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98846269335369463</v>
       </c>
       <c r="I66" s="7">
@@ -3062,31 +3062,31 @@
         <v>2</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C67" s="2">
-        <f>C66+IF(K66&gt;0, (C66-C65)*IF(C66&gt;C65,1,1/2), -(C66-C65)*IF(C66&lt;C65,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.9375000000000002E-2</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.8750000000000004E-2</v>
       </c>
       <c r="E67" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>83.294504085883659</v>
       </c>
       <c r="F67" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>92.671086364364669</v>
       </c>
       <c r="G67" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98813683038005484</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98932434715115647</v>
       </c>
       <c r="I67" s="7">
@@ -3108,31 +3108,31 @@
         <v>2</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C68" s="2">
-        <f>C67+IF(K67&gt;0, (C67-C66)*IF(C67&gt;C66,1,1/2), -(C67-C66)*IF(C67&lt;C66,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.8437500000000001E-2</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.6875000000000003E-2</v>
       </c>
       <c r="E68" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>86.910509885535902</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>96.483090530697183</v>
       </c>
       <c r="G68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98862479581449303</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98974181066115152</v>
       </c>
       <c r="I68" s="7">
@@ -3154,31 +3154,31 @@
         <v>2</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C69" s="2">
-        <f>C68+IF(K68&gt;0, (C68-C67)*IF(C68&gt;C67,1,1/2), -(C68-C67)*IF(C68&lt;C67,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.7968750000000004E-2</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.5937500000000009E-2</v>
       </c>
       <c r="E69" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>88.801462084478331</v>
       </c>
       <c r="F69" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>98.474914853207977</v>
       </c>
       <c r="G69" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.9888643238452034</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98994721431553201</v>
       </c>
       <c r="I69" s="7">
@@ -3200,31 +3200,31 @@
         <v>2</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C70" s="2">
-        <f>C69+IF(K69&gt;0, (C69-C68)*IF(C69&gt;C68,1,1/2), -(C69-C68)*IF(C69&lt;C68,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.8437500000000001E-2</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.6875000000000003E-2</v>
       </c>
       <c r="E70" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>86.910509885535902</v>
       </c>
       <c r="F70" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>96.483090530697183</v>
       </c>
       <c r="G70" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98862479581449303</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98974181066115152</v>
       </c>
       <c r="I70" s="7">
@@ -3246,31 +3246,31 @@
         <v>2</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C71" s="2">
-        <f>C70+IF(K70&gt;0, (C70-C69)*IF(C70&gt;C69,1,1/2), -(C70-C69)*IF(C70&lt;C69,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.8906249999999998E-2</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.7812499999999997E-2</v>
       </c>
       <c r="E71" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>85.075574926762542</v>
       </c>
       <c r="F71" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>94.549217099286494</v>
       </c>
       <c r="G71" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98838230240284941</v>
       </c>
       <c r="H71" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98953418949565142</v>
       </c>
       <c r="I71" s="7">
@@ -3292,31 +3292,31 @@
         <v>2</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C72" s="2">
-        <f>C71+IF(K71&gt;0, (C71-C70)*IF(C71&gt;C70,1,1/2), -(C71-C70)*IF(C71&lt;C70,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.9374999999999995E-2</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.8749999999999991E-2</v>
       </c>
       <c r="E72" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>83.294504085883688</v>
       </c>
       <c r="F72" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>92.671086364364697</v>
       </c>
       <c r="G72" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98813683038005484</v>
       </c>
       <c r="H72" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98932434715115647</v>
       </c>
       <c r="I72" s="7">
@@ -3338,31 +3338,31 @@
         <v>2</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C73" s="2">
-        <f>C72+IF(K72&gt;0, (C72-C71)*IF(C72&gt;C71,1,1/2), -(C72-C71)*IF(C72&lt;C71,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.9140624999999993E-2</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.8281249999999987E-2</v>
       </c>
       <c r="E73" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>84.178437017397115</v>
       </c>
       <c r="F73" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>93.60331778051318</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98825993954554769</v>
       </c>
       <c r="H73" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98942954619921386</v>
       </c>
       <c r="I73" s="7">
@@ -3384,31 +3384,31 @@
         <v>2</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C74" s="2">
-        <f>C73+IF(K73&gt;0, (C73-C72)*IF(C73&gt;C72,1,1/2), -(C73-C72)*IF(C73&lt;C72,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.9023437499999989E-2</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.8046874999999978E-2</v>
       </c>
       <c r="E74" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>84.625339280328916</v>
       </c>
       <c r="F74" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>94.074542467579917</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98832121415920937</v>
       </c>
       <c r="H74" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98948193728788125</v>
       </c>
       <c r="I74" s="7">
@@ -3430,31 +3430,31 @@
         <v>2</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C75" s="2">
-        <f>C74+IF(K74&gt;0, (C74-C73)*IF(C74&gt;C73,1,1/2), -(C74-C73)*IF(C74&lt;C73,1,1/2))</f>
+        <f t="shared" si="22"/>
         <v>4.8964843749999987E-2</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.7929687499999973E-2</v>
       </c>
       <c r="E75" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>84.850038400655336</v>
       </c>
       <c r="F75" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>94.311446458094508</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.98835178156434733</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98950808074831109</v>
       </c>
       <c r="I75" s="7">
@@ -3475,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C76" s="2">
@@ -3516,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C77" s="12">
@@ -3524,23 +3524,23 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" ref="D77:D92" si="20">C77/B77</f>
+        <f t="shared" ref="D77:D92" si="23">C77/B77</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E77" s="9">
-        <f t="shared" ref="E77:E92" si="21">POWER(1/D77-1,A77)</f>
+        <f t="shared" ref="E77:E92" si="24">POWER(1/D77-1,A77)</f>
         <v>124</v>
       </c>
       <c r="F77" s="9">
-        <f t="shared" ref="F77:F92" si="22">POWER((1/C77-1)*B77,A77)</f>
+        <f t="shared" ref="F77:F92" si="25">POWER((1/C77-1)*B77,A77)</f>
         <v>124.5</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" ref="G77:G92" si="23">E77/(E77+1)</f>
+        <f t="shared" ref="G77:G92" si="26">E77/(E77+1)</f>
         <v>0.99199999999999999</v>
       </c>
       <c r="H77" s="10">
-        <f t="shared" ref="H77:H92" si="24">F77/(F77+1)</f>
+        <f t="shared" ref="H77:H92" si="27">F77/(F77+1)</f>
         <v>0.99203187250996017</v>
       </c>
       <c r="I77" s="7">
@@ -3558,35 +3558,35 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" ref="A78:A92" si="25">A77</f>
+        <f t="shared" ref="A78:A92" si="28">A77</f>
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="C78" s="2">
-        <f>C77+IF(K77&gt;0, (C77-C76)*IF(C77&gt;C76,1,1/2), -(C77-C76)*IF(C77&lt;C76,1,1/2))</f>
+        <f t="shared" ref="C78:C92" si="29">C77+IF(K77&gt;0, (C77-C76)*IF(C77&gt;C76,1,1/2), -(C77-C76)*IF(C77&lt;C76,1,1/2))</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4E-2</v>
       </c>
       <c r="E78" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>70.428571428571431</v>
       </c>
       <c r="F78" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>70.928571428571431</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.98599999999999999</v>
       </c>
       <c r="H78" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.98609731876861961</v>
       </c>
       <c r="I78" s="7">
@@ -3604,35 +3604,35 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="29"/>
+        <v>0.01</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="23"/>
+        <v>0.02</v>
+      </c>
+      <c r="E79" s="9">
+        <f t="shared" si="24"/>
+        <v>49</v>
+      </c>
+      <c r="F79" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B79" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C79" s="2">
-        <f>C78+IF(K78&gt;0, (C78-C77)*IF(C78&gt;C77,1,1/2), -(C78-C77)*IF(C78&lt;C77,1,1/2))</f>
-        <v>0.01</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" si="20"/>
-        <v>0.02</v>
-      </c>
-      <c r="E79" s="9">
-        <f t="shared" si="21"/>
-        <v>49</v>
-      </c>
-      <c r="F79" s="9">
-        <f t="shared" si="22"/>
         <v>49.5</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.98</v>
       </c>
       <c r="H79" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.98019801980198018</v>
       </c>
       <c r="I79" s="7">
@@ -3650,35 +3650,35 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="29"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="23"/>
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="E80" s="9">
+        <f t="shared" si="24"/>
+        <v>37.46153846153846</v>
+      </c>
+      <c r="F80" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B80" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C80" s="2">
-        <f>C79+IF(K79&gt;0, (C79-C78)*IF(C79&gt;C78,1,1/2), -(C79-C78)*IF(C79&lt;C78,1,1/2))</f>
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="D80" s="2">
-        <f t="shared" si="20"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="E80" s="9">
-        <f t="shared" si="21"/>
-        <v>37.46153846153846</v>
-      </c>
-      <c r="F80" s="9">
-        <f t="shared" si="22"/>
         <v>37.96153846153846</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97399999999999998</v>
       </c>
       <c r="H80" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.9743336623889437</v>
       </c>
       <c r="I80" s="7">
@@ -3696,35 +3696,35 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="29"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="23"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="E81" s="9">
+        <f t="shared" si="24"/>
+        <v>42.478260869565219</v>
+      </c>
+      <c r="F81" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B81" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C81" s="2">
-        <f>C80+IF(K80&gt;0, (C80-C79)*IF(C80&gt;C79,1,1/2), -(C80-C79)*IF(C80&lt;C79,1,1/2))</f>
-        <v>1.15E-2</v>
-      </c>
-      <c r="D81" s="2">
-        <f t="shared" si="20"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="E81" s="9">
-        <f t="shared" si="21"/>
-        <v>42.478260869565219</v>
-      </c>
-      <c r="F81" s="9">
-        <f t="shared" si="22"/>
         <v>42.978260869565219</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97699999999999998</v>
       </c>
       <c r="H81" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97726149283242714</v>
       </c>
       <c r="I81" s="7">
@@ -3742,35 +3742,35 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="29"/>
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="23"/>
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="E82" s="9">
+        <f t="shared" si="24"/>
+        <v>45.511627906976749</v>
+      </c>
+      <c r="F82" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B82" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C82" s="2">
-        <f>C81+IF(K81&gt;0, (C81-C80)*IF(C81&gt;C80,1,1/2), -(C81-C80)*IF(C81&lt;C80,1,1/2))</f>
-        <v>1.0749999999999999E-2</v>
-      </c>
-      <c r="D82" s="2">
-        <f t="shared" si="20"/>
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="E82" s="9">
-        <f t="shared" si="21"/>
-        <v>45.511627906976749</v>
-      </c>
-      <c r="F82" s="9">
-        <f t="shared" si="22"/>
         <v>46.011627906976749</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97850000000000004</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97872866683156068</v>
       </c>
       <c r="I82" s="7">
@@ -3788,35 +3788,35 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" si="29"/>
+        <v>1.0374999999999999E-2</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="23"/>
+        <v>2.0749999999999998E-2</v>
+      </c>
+      <c r="E83" s="9">
+        <f t="shared" si="24"/>
+        <v>47.192771084337352</v>
+      </c>
+      <c r="F83" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B83" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C83" s="2">
-        <f>C82+IF(K82&gt;0, (C82-C81)*IF(C82&gt;C81,1,1/2), -(C82-C81)*IF(C82&lt;C81,1,1/2))</f>
-        <v>1.0374999999999999E-2</v>
-      </c>
-      <c r="D83" s="2">
-        <f t="shared" si="20"/>
-        <v>2.0749999999999998E-2</v>
-      </c>
-      <c r="E83" s="9">
-        <f t="shared" si="21"/>
-        <v>47.192771084337352</v>
-      </c>
-      <c r="F83" s="9">
-        <f t="shared" si="22"/>
         <v>47.692771084337352</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97924999999999995</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97946307064208837</v>
       </c>
       <c r="I83" s="7">
@@ -3834,35 +3834,35 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" si="29"/>
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="23"/>
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="E84" s="9">
+        <f t="shared" si="24"/>
+        <v>45.511627906976749</v>
+      </c>
+      <c r="F84" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B84" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C84" s="2">
-        <f>C83+IF(K83&gt;0, (C83-C82)*IF(C83&gt;C82,1,1/2), -(C83-C82)*IF(C83&lt;C82,1,1/2))</f>
-        <v>1.0749999999999999E-2</v>
-      </c>
-      <c r="D84" s="2">
-        <f t="shared" si="20"/>
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="E84" s="9">
-        <f t="shared" si="21"/>
-        <v>45.511627906976749</v>
-      </c>
-      <c r="F84" s="9">
-        <f t="shared" si="22"/>
         <v>46.011627906976749</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97850000000000004</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97872866683156068</v>
       </c>
       <c r="I84" s="7">
@@ -3880,35 +3880,35 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" si="29"/>
+        <v>1.1124999999999999E-2</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="23"/>
+        <v>2.2249999999999999E-2</v>
+      </c>
+      <c r="E85" s="9">
+        <f t="shared" si="24"/>
+        <v>43.943820224719104</v>
+      </c>
+      <c r="F85" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B85" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C85" s="2">
-        <f>C84+IF(K84&gt;0, (C84-C83)*IF(C84&gt;C83,1,1/2), -(C84-C83)*IF(C84&lt;C83,1,1/2))</f>
-        <v>1.1124999999999999E-2</v>
-      </c>
-      <c r="D85" s="2">
-        <f t="shared" si="20"/>
-        <v>2.2249999999999999E-2</v>
-      </c>
-      <c r="E85" s="9">
-        <f t="shared" si="21"/>
-        <v>43.943820224719104</v>
-      </c>
-      <c r="F85" s="9">
-        <f t="shared" si="22"/>
         <v>44.443820224719104</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97775000000000001</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97799480776362957</v>
       </c>
       <c r="I85" s="7">
@@ -3926,35 +3926,35 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="29"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="23"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="E86" s="9">
+        <f t="shared" si="24"/>
+        <v>42.478260869565219</v>
+      </c>
+      <c r="F86" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B86" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C86" s="2">
-        <f>C85+IF(K85&gt;0, (C85-C84)*IF(C85&gt;C84,1,1/2), -(C85-C84)*IF(C85&lt;C84,1,1/2))</f>
-        <v>1.15E-2</v>
-      </c>
-      <c r="D86" s="2">
-        <f t="shared" si="20"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="E86" s="9">
-        <f t="shared" si="21"/>
-        <v>42.478260869565219</v>
-      </c>
-      <c r="F86" s="9">
-        <f t="shared" si="22"/>
         <v>42.978260869565219</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97699999999999998</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97726149283242714</v>
       </c>
       <c r="I86" s="7">
@@ -3972,35 +3972,35 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="29"/>
+        <v>1.13125E-2</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="23"/>
+        <v>2.2624999999999999E-2</v>
+      </c>
+      <c r="E87" s="9">
+        <f t="shared" si="24"/>
+        <v>43.19889502762431</v>
+      </c>
+      <c r="F87" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B87" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C87" s="2">
-        <f>C86+IF(K86&gt;0, (C86-C85)*IF(C86&gt;C85,1,1/2), -(C86-C85)*IF(C86&lt;C85,1,1/2))</f>
-        <v>1.13125E-2</v>
-      </c>
-      <c r="D87" s="2">
-        <f t="shared" si="20"/>
-        <v>2.2624999999999999E-2</v>
-      </c>
-      <c r="E87" s="9">
-        <f t="shared" si="21"/>
-        <v>43.19889502762431</v>
-      </c>
-      <c r="F87" s="9">
-        <f t="shared" si="22"/>
         <v>43.69889502762431</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97737499999999999</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97762808231876897</v>
       </c>
       <c r="I87" s="7">
@@ -4018,35 +4018,35 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="29"/>
+        <v>1.121875E-2</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="23"/>
+        <v>2.2437499999999999E-2</v>
+      </c>
+      <c r="E88" s="9">
+        <f t="shared" si="24"/>
+        <v>43.568245125348191</v>
+      </c>
+      <c r="F88" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B88" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C88" s="2">
-        <f>C87+IF(K87&gt;0, (C87-C86)*IF(C87&gt;C86,1,1/2), -(C87-C86)*IF(C87&lt;C86,1,1/2))</f>
-        <v>1.121875E-2</v>
-      </c>
-      <c r="D88" s="2">
-        <f t="shared" si="20"/>
-        <v>2.2437499999999999E-2</v>
-      </c>
-      <c r="E88" s="9">
-        <f t="shared" si="21"/>
-        <v>43.568245125348191</v>
-      </c>
-      <c r="F88" s="9">
-        <f t="shared" si="22"/>
         <v>44.068245125348191</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.9775625</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97781142804165766</v>
       </c>
       <c r="I88" s="7">
@@ -4064,43 +4064,43 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="29"/>
+        <v>1.1171875E-2</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="23"/>
+        <v>2.2343749999999999E-2</v>
+      </c>
+      <c r="E89" s="9">
+        <f t="shared" si="24"/>
+        <v>43.75524475524476</v>
+      </c>
+      <c r="F89" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B89" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C89" s="2">
-        <f>C88+IF(K88&gt;0, (C88-C87)*IF(C88&gt;C87,1,1/2), -(C88-C87)*IF(C88&lt;C87,1,1/2))</f>
-        <v>1.1171875E-2</v>
-      </c>
-      <c r="D89" s="2">
-        <f t="shared" si="20"/>
-        <v>2.2343749999999999E-2</v>
-      </c>
-      <c r="E89" s="9">
-        <f t="shared" si="21"/>
-        <v>43.75524475524476</v>
-      </c>
-      <c r="F89" s="9">
-        <f t="shared" si="22"/>
         <v>44.25524475524476</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97765625</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.9779031136521672</v>
       </c>
       <c r="I89" s="7">
-        <f t="shared" ref="I89:I152" si="26">MAX(E89,F89)*$D$21+C89*$D$20</f>
+        <f t="shared" ref="I89:I152" si="30">MAX(E89,F89)*$D$21+C89*$D$20</f>
         <v>395816.82692307694</v>
       </c>
       <c r="J89" s="6">
-        <f t="shared" ref="J89:J152" si="27">2*SQRT($D$20*B89*$D$21)</f>
+        <f t="shared" ref="J89:J152" si="31">2*SQRT($D$20*B89*$D$21)</f>
         <v>397994.97484264796</v>
       </c>
       <c r="K89" s="14">
@@ -4110,43 +4110,43 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="29"/>
+        <v>1.11484375E-2</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="23"/>
+        <v>2.2296875000000001E-2</v>
+      </c>
+      <c r="E90" s="9">
+        <f t="shared" si="24"/>
+        <v>43.849334267694459</v>
+      </c>
+      <c r="F90" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B90" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C90" s="2">
-        <f>C89+IF(K89&gt;0, (C89-C88)*IF(C89&gt;C88,1,1/2), -(C89-C88)*IF(C89&lt;C88,1,1/2))</f>
-        <v>1.11484375E-2</v>
-      </c>
-      <c r="D90" s="2">
-        <f t="shared" si="20"/>
-        <v>2.2296875000000001E-2</v>
-      </c>
-      <c r="E90" s="9">
-        <f t="shared" si="21"/>
-        <v>43.849334267694459</v>
-      </c>
-      <c r="F90" s="9">
-        <f t="shared" si="22"/>
         <v>44.349334267694459</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97770312500000001</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97794895964520545</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>395808.94577785558</v>
       </c>
       <c r="J90" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>397994.97484264796</v>
       </c>
       <c r="K90" s="14">
@@ -4156,43 +4156,43 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="29"/>
+        <v>1.113671875E-2</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="23"/>
+        <v>2.22734375E-2</v>
+      </c>
+      <c r="E91" s="9">
+        <f t="shared" si="24"/>
+        <v>43.896527534198526</v>
+      </c>
+      <c r="F91" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B91" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C91" s="2">
-        <f>C90+IF(K90&gt;0, (C90-C89)*IF(C90&gt;C89,1,1/2), -(C90-C89)*IF(C90&lt;C89,1,1/2))</f>
-        <v>1.113671875E-2</v>
-      </c>
-      <c r="D91" s="2">
-        <f t="shared" si="20"/>
-        <v>2.22734375E-2</v>
-      </c>
-      <c r="E91" s="9">
-        <f t="shared" si="21"/>
-        <v>43.896527534198526</v>
-      </c>
-      <c r="F91" s="9">
-        <f t="shared" si="22"/>
         <v>44.396527534198526</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97772656250000001</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97797188343873498</v>
       </c>
       <c r="I91" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>395805.65865047352</v>
       </c>
       <c r="J91" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>397994.97484264796</v>
       </c>
       <c r="K91" s="14">
@@ -4202,43 +4202,43 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="29"/>
+        <v>1.1130859375E-2</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="23"/>
+        <v>2.2261718749999999E-2</v>
+      </c>
+      <c r="E92" s="9">
+        <f t="shared" si="24"/>
+        <v>43.920161431830145</v>
+      </c>
+      <c r="F92" s="9">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="B92" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="C92" s="2">
-        <f>C91+IF(K91&gt;0, (C91-C90)*IF(C91&gt;C90,1,1/2), -(C91-C90)*IF(C91&lt;C90,1,1/2))</f>
-        <v>1.1130859375E-2</v>
-      </c>
-      <c r="D92" s="2">
-        <f t="shared" si="20"/>
-        <v>2.2261718749999999E-2</v>
-      </c>
-      <c r="E92" s="9">
-        <f t="shared" si="21"/>
-        <v>43.920161431830145</v>
-      </c>
-      <c r="F92" s="9">
-        <f t="shared" si="22"/>
         <v>44.420161431830145</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97773828124999995</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.97798334553476052</v>
       </c>
       <c r="I92" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>395804.17905005265</v>
       </c>
       <c r="J92" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>397994.97484264796</v>
       </c>
       <c r="K92" s="14">
@@ -4277,11 +4277,11 @@
         <v>0.99999871479133606</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3423744179.6399994</v>
       </c>
       <c r="J93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
     </row>
@@ -4299,31 +4299,31 @@
         <v>0.04</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" ref="D94:D109" si="28">C94/B94</f>
+        <f t="shared" ref="D94:D109" si="32">C94/B94</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="E94" s="9">
-        <f t="shared" ref="E94:E109" si="29">POWER(1/D94-1,A94)</f>
+        <f t="shared" ref="E94:E109" si="33">POWER(1/D94-1,A94)</f>
         <v>1785.0625</v>
       </c>
       <c r="F94" s="9">
-        <f t="shared" ref="F94:F109" si="30">POWER((1/C94-1)*B94,A94)</f>
+        <f t="shared" ref="F94:F109" si="34">POWER((1/C94-1)*B94,A94)</f>
         <v>2687.3855999999987</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" ref="G94:G109" si="31">E94/(E94+1)</f>
+        <f t="shared" ref="G94:G109" si="35">E94/(E94+1)</f>
         <v>0.99944010917871018</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" ref="H94:H109" si="32">F94/(F94+1)</f>
+        <f t="shared" ref="H94:H109" si="36">F94/(F94+1)</f>
         <v>0.99962802955052277</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>12544496.639999995</v>
       </c>
       <c r="J94" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K94" s="14">
@@ -4333,11 +4333,11 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" ref="A95:B95" si="33">A94</f>
+        <f t="shared" ref="A95:B95" si="37">A94</f>
         <v>4</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.3</v>
       </c>
       <c r="C95" s="12">
@@ -4345,31 +4345,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.23333333333333336</v>
       </c>
       <c r="E95" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>116.55185339441884</v>
       </c>
       <c r="F95" s="9">
+        <f t="shared" si="34"/>
+        <v>252.36240237401071</v>
+      </c>
+      <c r="G95" s="10">
+        <f t="shared" si="35"/>
+        <v>0.99149311583676414</v>
+      </c>
+      <c r="H95" s="10">
+        <f t="shared" si="36"/>
+        <v>0.99605308447255791</v>
+      </c>
+      <c r="I95" s="7">
         <f t="shared" si="30"/>
-        <v>252.36240237401071</v>
-      </c>
-      <c r="G95" s="10">
+        <v>2370394.5704456475</v>
+      </c>
+      <c r="J95" s="6">
         <f t="shared" si="31"/>
-        <v>0.99149311583676414</v>
-      </c>
-      <c r="H95" s="10">
-        <f t="shared" si="32"/>
-        <v>0.99605308447255791</v>
-      </c>
-      <c r="I95" s="7">
-        <f t="shared" si="26"/>
-        <v>2370394.5704456475</v>
-      </c>
-      <c r="J95" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K95" s="14">
@@ -4379,43 +4379,43 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" ref="A96:B96" si="34">A95</f>
+        <f t="shared" ref="A96:B96" si="38">A95</f>
         <v>4</v>
       </c>
       <c r="B96" s="1">
+        <f t="shared" si="38"/>
+        <v>0.3</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" ref="C96:C109" si="39">C95+IF(K95&gt;0, (C95-C94)*IF(C95&gt;C94,1,1/2), -(C95-C94)*IF(C95&lt;C94,1,1/2))</f>
+        <v>0.1</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="32"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="E96" s="9">
+        <f t="shared" si="33"/>
+        <v>15.999999999999986</v>
+      </c>
+      <c r="F96" s="9">
         <f t="shared" si="34"/>
-        <v>0.3</v>
-      </c>
-      <c r="C96" s="2">
-        <f>C95+IF(K95&gt;0, (C95-C94)*IF(C95&gt;C94,1,1/2), -(C95-C94)*IF(C95&lt;C94,1,1/2))</f>
-        <v>0.1</v>
-      </c>
-      <c r="D96" s="2">
-        <f t="shared" si="28"/>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="E96" s="9">
-        <f t="shared" si="29"/>
-        <v>15.999999999999986</v>
-      </c>
-      <c r="F96" s="9">
+        <v>53.144099999999973</v>
+      </c>
+      <c r="G96" s="10">
+        <f t="shared" si="35"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H96" s="10">
+        <f t="shared" si="36"/>
+        <v>0.98153076697183994</v>
+      </c>
+      <c r="I96" s="7">
         <f t="shared" si="30"/>
-        <v>53.144099999999973</v>
-      </c>
-      <c r="G96" s="10">
+        <v>2033834.0399999998</v>
+      </c>
+      <c r="J96" s="6">
         <f t="shared" si="31"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="H96" s="10">
-        <f t="shared" si="32"/>
-        <v>0.98153076697183994</v>
-      </c>
-      <c r="I96" s="7">
-        <f t="shared" si="26"/>
-        <v>2033834.0399999998</v>
-      </c>
-      <c r="J96" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K96" s="14">
@@ -4425,43 +4425,43 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" ref="A97:B97" si="35">A96</f>
+        <f t="shared" ref="A97:B97" si="40">A96</f>
         <v>4</v>
       </c>
       <c r="B97" s="1">
+        <f t="shared" si="40"/>
+        <v>0.3</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="39"/>
+        <v>0.13</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="32"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E97" s="9">
+        <f t="shared" si="33"/>
+        <v>2.9243023703651811</v>
+      </c>
+      <c r="F97" s="9">
+        <f t="shared" si="34"/>
+        <v>16.24757760932739</v>
+      </c>
+      <c r="G97" s="10">
         <f t="shared" si="35"/>
-        <v>0.3</v>
-      </c>
-      <c r="C97" s="2">
-        <f>C96+IF(K96&gt;0, (C96-C95)*IF(C96&gt;C95,1,1/2), -(C96-C95)*IF(C96&lt;C95,1,1/2))</f>
-        <v>0.13</v>
-      </c>
-      <c r="D97" s="2">
-        <f t="shared" si="28"/>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="E97" s="9">
-        <f t="shared" si="29"/>
-        <v>2.9243023703651811</v>
-      </c>
-      <c r="F97" s="9">
+        <v>0.74517763780089563</v>
+      </c>
+      <c r="H97" s="10">
+        <f t="shared" si="36"/>
+        <v>0.94202084358448079</v>
+      </c>
+      <c r="I97" s="7">
         <f t="shared" si="30"/>
-        <v>16.24757760932739</v>
-      </c>
-      <c r="G97" s="10">
+        <v>2411489.3414810407</v>
+      </c>
+      <c r="J97" s="6">
         <f t="shared" si="31"/>
-        <v>0.74517763780089563</v>
-      </c>
-      <c r="H97" s="10">
-        <f t="shared" si="32"/>
-        <v>0.94202084358448079</v>
-      </c>
-      <c r="I97" s="7">
-        <f t="shared" si="26"/>
-        <v>2411489.3414810407</v>
-      </c>
-      <c r="J97" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K97" s="14">
@@ -4471,43 +4471,43 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" ref="A98:B98" si="36">A97</f>
+        <f t="shared" ref="A98:B98" si="41">A97</f>
         <v>4</v>
       </c>
       <c r="B98" s="1">
+        <f t="shared" si="41"/>
+        <v>0.3</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="39"/>
+        <v>0.115</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="32"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="E98" s="9">
+        <f t="shared" si="33"/>
+        <v>6.6972352157117792</v>
+      </c>
+      <c r="F98" s="9">
+        <f t="shared" si="34"/>
+        <v>28.409706054866863</v>
+      </c>
+      <c r="G98" s="10">
+        <f t="shared" si="35"/>
+        <v>0.87008322183544862</v>
+      </c>
+      <c r="H98" s="10">
         <f t="shared" si="36"/>
-        <v>0.3</v>
-      </c>
-      <c r="C98" s="2">
-        <f>C97+IF(K97&gt;0, (C97-C96)*IF(C97&gt;C96,1,1/2), -(C97-C96)*IF(C97&lt;C96,1,1/2))</f>
-        <v>0.115</v>
-      </c>
-      <c r="D98" s="2">
-        <f t="shared" si="28"/>
-        <v>0.38333333333333336</v>
-      </c>
-      <c r="E98" s="9">
-        <f t="shared" si="29"/>
-        <v>6.6972352157117792</v>
-      </c>
-      <c r="F98" s="9">
+        <v>0.9659976200328424</v>
+      </c>
+      <c r="I98" s="7">
         <f t="shared" si="30"/>
-        <v>28.409706054866863</v>
-      </c>
-      <c r="G98" s="10">
+        <v>2195002.7066414142</v>
+      </c>
+      <c r="J98" s="6">
         <f t="shared" si="31"/>
-        <v>0.87008322183544862</v>
-      </c>
-      <c r="H98" s="10">
-        <f t="shared" si="32"/>
-        <v>0.9659976200328424</v>
-      </c>
-      <c r="I98" s="7">
-        <f t="shared" si="26"/>
-        <v>2195002.7066414142</v>
-      </c>
-      <c r="J98" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K98" s="14">
@@ -4517,43 +4517,43 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" ref="A99:B99" si="37">A98</f>
+        <f t="shared" ref="A99:B99" si="42">A98</f>
         <v>4</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0.3</v>
       </c>
       <c r="C99" s="2">
-        <f>C98+IF(K98&gt;0, (C98-C97)*IF(C98&gt;C97,1,1/2), -(C98-C97)*IF(C98&lt;C97,1,1/2))</f>
+        <f t="shared" si="39"/>
         <v>0.10750000000000001</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.35833333333333339</v>
       </c>
       <c r="E99" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10.282271767207266</v>
       </c>
       <c r="F99" s="9">
+        <f t="shared" si="34"/>
+        <v>38.484341606340891</v>
+      </c>
+      <c r="G99" s="10">
+        <f t="shared" si="35"/>
+        <v>0.91136536855045702</v>
+      </c>
+      <c r="H99" s="10">
+        <f t="shared" si="36"/>
+        <v>0.97467350450034074</v>
+      </c>
+      <c r="I99" s="7">
         <f t="shared" si="30"/>
-        <v>38.484341606340891</v>
-      </c>
-      <c r="G99" s="10">
+        <v>2104331.1030679001</v>
+      </c>
+      <c r="J99" s="6">
         <f t="shared" si="31"/>
-        <v>0.91136536855045702</v>
-      </c>
-      <c r="H99" s="10">
-        <f t="shared" si="32"/>
-        <v>0.97467350450034074</v>
-      </c>
-      <c r="I99" s="7">
-        <f t="shared" si="26"/>
-        <v>2104331.1030679001</v>
-      </c>
-      <c r="J99" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K99" s="14">
@@ -4563,43 +4563,43 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" ref="A100:B100" si="38">A99</f>
+        <f t="shared" ref="A100:B100" si="43">A99</f>
         <v>4</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0.3</v>
       </c>
       <c r="C100" s="2">
-        <f>C99+IF(K99&gt;0, (C99-C98)*IF(C99&gt;C98,1,1/2), -(C99-C98)*IF(C99&lt;C98,1,1/2))</f>
+        <f t="shared" si="39"/>
         <v>0.10375000000000001</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.34583333333333338</v>
       </c>
       <c r="E100" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12.80224812420143</v>
       </c>
       <c r="F100" s="9">
+        <f t="shared" si="34"/>
+        <v>45.107553412184537</v>
+      </c>
+      <c r="G100" s="10">
+        <f t="shared" si="35"/>
+        <v>0.92754803485625226</v>
+      </c>
+      <c r="H100" s="10">
+        <f t="shared" si="36"/>
+        <v>0.97831157964378701</v>
+      </c>
+      <c r="I100" s="7">
         <f t="shared" si="30"/>
-        <v>45.107553412184537</v>
-      </c>
-      <c r="G100" s="10">
+        <v>2065973.2350136121</v>
+      </c>
+      <c r="J100" s="6">
         <f t="shared" si="31"/>
-        <v>0.92754803485625226</v>
-      </c>
-      <c r="H100" s="10">
-        <f t="shared" si="32"/>
-        <v>0.97831157964378701</v>
-      </c>
-      <c r="I100" s="7">
-        <f t="shared" si="26"/>
-        <v>2065973.2350136121</v>
-      </c>
-      <c r="J100" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K100" s="14">
@@ -4609,43 +4609,43 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" ref="A101:B101" si="39">A100</f>
+        <f t="shared" ref="A101:B101" si="44">A100</f>
         <v>4</v>
       </c>
       <c r="B101" s="1">
+        <f t="shared" si="44"/>
+        <v>0.3</v>
+      </c>
+      <c r="C101" s="2">
         <f t="shared" si="39"/>
-        <v>0.3</v>
-      </c>
-      <c r="C101" s="2">
-        <f>C100+IF(K100&gt;0, (C100-C99)*IF(C100&gt;C99,1,1/2), -(C100-C99)*IF(C100&lt;C99,1,1/2))</f>
         <v>0.10187500000000001</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33958333333333335</v>
       </c>
       <c r="E101" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>14.304959456540345</v>
       </c>
       <c r="F101" s="9">
+        <f t="shared" si="34"/>
+        <v>48.928474312222292</v>
+      </c>
+      <c r="G101" s="10">
+        <f t="shared" si="35"/>
+        <v>0.93466170212083344</v>
+      </c>
+      <c r="H101" s="10">
+        <f t="shared" si="36"/>
+        <v>0.97997134873886571</v>
+      </c>
+      <c r="I101" s="7">
         <f t="shared" si="30"/>
-        <v>48.928474312222292</v>
-      </c>
-      <c r="G101" s="10">
+        <v>2049035.2869737784</v>
+      </c>
+      <c r="J101" s="6">
         <f t="shared" si="31"/>
-        <v>0.93466170212083344</v>
-      </c>
-      <c r="H101" s="10">
-        <f t="shared" si="32"/>
-        <v>0.97997134873886571</v>
-      </c>
-      <c r="I101" s="7">
-        <f t="shared" si="26"/>
-        <v>2049035.2869737784</v>
-      </c>
-      <c r="J101" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K101" s="14">
@@ -4655,43 +4655,43 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" ref="A102:B102" si="40">A101</f>
+        <f t="shared" ref="A102:B102" si="45">A101</f>
         <v>4</v>
       </c>
       <c r="B102" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.3</v>
       </c>
       <c r="C102" s="2">
-        <f>C101+IF(K101&gt;0, (C101-C100)*IF(C101&gt;C100,1,1/2), -(C101-C100)*IF(C101&lt;C100,1,1/2))</f>
+        <f t="shared" si="39"/>
         <v>0.10093750000000001</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33645833333333341</v>
       </c>
       <c r="E102" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>15.126820032397887</v>
       </c>
       <c r="F102" s="9">
+        <f t="shared" si="34"/>
+        <v>50.984055368645279</v>
+      </c>
+      <c r="G102" s="10">
+        <f t="shared" si="35"/>
+        <v>0.93799149503801393</v>
+      </c>
+      <c r="H102" s="10">
+        <f t="shared" si="36"/>
+        <v>0.98076333227739754</v>
+      </c>
+      <c r="I102" s="7">
         <f t="shared" si="30"/>
-        <v>50.984055368645279</v>
-      </c>
-      <c r="G102" s="10">
+        <v>2041204.8436220395</v>
+      </c>
+      <c r="J102" s="6">
         <f t="shared" si="31"/>
-        <v>0.93799149503801393</v>
-      </c>
-      <c r="H102" s="10">
-        <f t="shared" si="32"/>
-        <v>0.98076333227739754</v>
-      </c>
-      <c r="I102" s="7">
-        <f t="shared" si="26"/>
-        <v>2041204.8436220395</v>
-      </c>
-      <c r="J102" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K102" s="14">
@@ -4701,43 +4701,43 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" ref="A103:B103" si="41">A102</f>
+        <f t="shared" ref="A103:B103" si="46">A102</f>
         <v>4</v>
       </c>
       <c r="B103" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.3</v>
       </c>
       <c r="C103" s="2">
-        <f>C102+IF(K102&gt;0, (C102-C101)*IF(C102&gt;C101,1,1/2), -(C102-C101)*IF(C102&lt;C101,1,1/2))</f>
+        <f t="shared" si="39"/>
         <v>0.10046875000000002</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33489583333333345</v>
       </c>
       <c r="E103" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>15.55677954447704</v>
       </c>
       <c r="F103" s="9">
+        <f t="shared" si="34"/>
+        <v>52.050636543539639</v>
+      </c>
+      <c r="G103" s="10">
+        <f t="shared" si="35"/>
+        <v>0.93960178081047319</v>
+      </c>
+      <c r="H103" s="10">
+        <f t="shared" si="36"/>
+        <v>0.98115008480286037</v>
+      </c>
+      <c r="I103" s="7">
         <f t="shared" si="30"/>
-        <v>52.050636543539639</v>
-      </c>
-      <c r="G103" s="10">
+        <v>2037460.3007915749</v>
+      </c>
+      <c r="J103" s="6">
         <f t="shared" si="31"/>
-        <v>0.93960178081047319</v>
-      </c>
-      <c r="H103" s="10">
-        <f t="shared" si="32"/>
-        <v>0.98115008480286037</v>
-      </c>
-      <c r="I103" s="7">
-        <f t="shared" si="26"/>
-        <v>2037460.3007915749</v>
-      </c>
-      <c r="J103" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K103" s="14">
@@ -4747,43 +4747,43 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" ref="A104:B104" si="42">A103</f>
+        <f t="shared" ref="A104:B104" si="47">A103</f>
         <v>4</v>
       </c>
       <c r="B104" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.3</v>
       </c>
       <c r="C104" s="2">
-        <f>C103+IF(K103&gt;0, (C103-C102)*IF(C103&gt;C102,1,1/2), -(C103-C102)*IF(C103&lt;C102,1,1/2))</f>
+        <f t="shared" si="39"/>
         <v>0.10023437500000003</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33411458333333344</v>
       </c>
       <c r="E104" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>15.776704332748418</v>
       </c>
       <c r="F104" s="9">
+        <f t="shared" si="34"/>
+        <v>52.593958667077402</v>
+      </c>
+      <c r="G104" s="10">
+        <f t="shared" si="35"/>
+        <v>0.9403935373619251</v>
+      </c>
+      <c r="H104" s="10">
+        <f t="shared" si="36"/>
+        <v>0.98134118051976826</v>
+      </c>
+      <c r="I104" s="7">
         <f t="shared" si="30"/>
-        <v>52.593958667077402</v>
-      </c>
-      <c r="G104" s="10">
+        <v>2035632.168135141</v>
+      </c>
+      <c r="J104" s="6">
         <f t="shared" si="31"/>
-        <v>0.9403935373619251</v>
-      </c>
-      <c r="H104" s="10">
-        <f t="shared" si="32"/>
-        <v>0.98134118051976826</v>
-      </c>
-      <c r="I104" s="7">
-        <f t="shared" si="26"/>
-        <v>2035632.168135141</v>
-      </c>
-      <c r="J104" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K104" s="14">
@@ -4793,43 +4793,43 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" ref="A105:B105" si="43">A104</f>
+        <f t="shared" ref="A105:B105" si="48">A104</f>
         <v>4</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.3</v>
       </c>
       <c r="C105" s="2">
-        <f>C104+IF(K104&gt;0, (C104-C103)*IF(C104&gt;C103,1,1/2), -(C104-C103)*IF(C104&lt;C103,1,1/2))</f>
+        <f t="shared" si="39"/>
         <v>0.10011718750000004</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33372395833333346</v>
       </c>
       <c r="E105" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>15.887927272231016</v>
       </c>
       <c r="F105" s="9">
+        <f t="shared" si="34"/>
+        <v>52.868170676102928</v>
+      </c>
+      <c r="G105" s="10">
+        <f t="shared" si="35"/>
+        <v>0.94078610217345549</v>
+      </c>
+      <c r="H105" s="10">
+        <f t="shared" si="36"/>
+        <v>0.98143616188467264</v>
+      </c>
+      <c r="I105" s="7">
         <f t="shared" si="30"/>
-        <v>52.868170676102928</v>
-      </c>
-      <c r="G105" s="10">
+        <v>2034729.3259748537</v>
+      </c>
+      <c r="J105" s="6">
         <f t="shared" si="31"/>
-        <v>0.94078610217345549</v>
-      </c>
-      <c r="H105" s="10">
-        <f t="shared" si="32"/>
-        <v>0.98143616188467264</v>
-      </c>
-      <c r="I105" s="7">
-        <f t="shared" si="26"/>
-        <v>2034729.3259748537</v>
-      </c>
-      <c r="J105" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K105" s="14">
@@ -4839,43 +4839,43 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" ref="A106:B106" si="44">A105</f>
+        <f t="shared" ref="A106:B106" si="49">A105</f>
         <v>4</v>
       </c>
       <c r="B106" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.3</v>
       </c>
       <c r="C106" s="2">
-        <f>C105+IF(K105&gt;0, (C105-C104)*IF(C105&gt;C104,1,1/2), -(C105-C104)*IF(C105&lt;C104,1,1/2))</f>
+        <f t="shared" si="39"/>
         <v>0.10005859375000004</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33352864583333347</v>
       </c>
       <c r="E106" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>15.943856967205363</v>
       </c>
       <c r="F106" s="9">
+        <f t="shared" si="34"/>
+        <v>53.005919885869616</v>
+      </c>
+      <c r="G106" s="10">
+        <f t="shared" si="35"/>
+        <v>0.94098156034157465</v>
+      </c>
+      <c r="H106" s="10">
+        <f t="shared" si="36"/>
+        <v>0.98148351139813383</v>
+      </c>
+      <c r="I106" s="7">
         <f t="shared" si="30"/>
-        <v>53.005919885869616</v>
-      </c>
-      <c r="G106" s="10">
+        <v>2034280.7349978271</v>
+      </c>
+      <c r="J106" s="6">
         <f t="shared" si="31"/>
-        <v>0.94098156034157465</v>
-      </c>
-      <c r="H106" s="10">
-        <f t="shared" si="32"/>
-        <v>0.98148351139813383</v>
-      </c>
-      <c r="I106" s="7">
-        <f t="shared" si="26"/>
-        <v>2034280.7349978271</v>
-      </c>
-      <c r="J106" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K106" s="14">
@@ -4885,43 +4885,43 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" ref="A107:B107" si="45">A106</f>
+        <f t="shared" ref="A107:B107" si="50">A106</f>
         <v>4</v>
       </c>
       <c r="B107" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.3</v>
       </c>
       <c r="C107" s="2">
-        <f>C106+IF(K106&gt;0, (C106-C105)*IF(C106&gt;C105,1,1/2), -(C106-C105)*IF(C106&lt;C105,1,1/2))</f>
+        <f t="shared" si="39"/>
         <v>0.10002929687500003</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33343098958333345</v>
       </c>
       <c r="E107" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>15.971901760477207</v>
       </c>
       <c r="F107" s="9">
+        <f t="shared" si="34"/>
+        <v>53.074955981046998</v>
+      </c>
+      <c r="G107" s="10">
+        <f t="shared" si="35"/>
+        <v>0.94107908388152939</v>
+      </c>
+      <c r="H107" s="10">
+        <f t="shared" si="36"/>
+        <v>0.98150715091935548</v>
+      </c>
+      <c r="I107" s="7">
         <f t="shared" si="30"/>
-        <v>53.074955981046998</v>
-      </c>
-      <c r="G107" s="10">
+        <v>2034057.1500666074</v>
+      </c>
+      <c r="J107" s="6">
         <f t="shared" si="31"/>
-        <v>0.94107908388152939</v>
-      </c>
-      <c r="H107" s="10">
-        <f t="shared" si="32"/>
-        <v>0.98150715091935548</v>
-      </c>
-      <c r="I107" s="7">
-        <f t="shared" si="26"/>
-        <v>2034057.1500666074</v>
-      </c>
-      <c r="J107" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K107" s="14">
@@ -4931,43 +4931,43 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" ref="A108:B108" si="46">A107</f>
+        <f t="shared" ref="A108:B108" si="51">A107</f>
         <v>4</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.3</v>
       </c>
       <c r="C108" s="2">
-        <f>C107+IF(K107&gt;0, (C107-C106)*IF(C107&gt;C106,1,1/2), -(C107-C106)*IF(C107&lt;C106,1,1/2))</f>
+        <f t="shared" si="39"/>
         <v>0.10001464843750003</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33338216145833344</v>
       </c>
       <c r="E108" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>15.985944192455797</v>
       </c>
       <c r="F108" s="9">
+        <f t="shared" si="34"/>
+        <v>53.10951448767333</v>
+      </c>
+      <c r="G108" s="10">
+        <f t="shared" si="35"/>
+        <v>0.94112779432984695</v>
+      </c>
+      <c r="H108" s="10">
+        <f t="shared" si="36"/>
+        <v>0.98151896187817744</v>
+      </c>
+      <c r="I108" s="7">
         <f t="shared" si="30"/>
-        <v>53.10951448767333</v>
-      </c>
-      <c r="G108" s="10">
+        <v>2033945.5356207634</v>
+      </c>
+      <c r="J108" s="6">
         <f t="shared" si="31"/>
-        <v>0.94112779432984695</v>
-      </c>
-      <c r="H108" s="10">
-        <f t="shared" si="32"/>
-        <v>0.98151896187817744</v>
-      </c>
-      <c r="I108" s="7">
-        <f t="shared" si="26"/>
-        <v>2033945.5356207634</v>
-      </c>
-      <c r="J108" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K108" s="14">
@@ -4977,43 +4977,43 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" ref="A109:B124" si="47">A108</f>
+        <f t="shared" ref="A109:B124" si="52">A108</f>
         <v>4</v>
       </c>
       <c r="B109" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C109" s="2">
-        <f>C108+IF(K108&gt;0, (C108-C107)*IF(C108&gt;C107,1,1/2), -(C108-C107)*IF(C108&lt;C107,1,1/2))</f>
+        <f t="shared" si="39"/>
         <v>0.10000732421875003</v>
       </c>
       <c r="D109" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33335774739583346</v>
       </c>
       <c r="E109" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>15.992970423406115</v>
       </c>
       <c r="F109" s="9">
+        <f t="shared" si="34"/>
+        <v>53.126803866575422</v>
+      </c>
+      <c r="G109" s="10">
+        <f t="shared" si="35"/>
+        <v>0.94115213673163356</v>
+      </c>
+      <c r="H109" s="10">
+        <f t="shared" si="36"/>
+        <v>0.98152486515802717</v>
+      </c>
+      <c r="I109" s="7">
         <f t="shared" si="30"/>
-        <v>53.126803866575422</v>
-      </c>
-      <c r="G109" s="10">
+        <v>2033889.7729504323</v>
+      </c>
+      <c r="J109" s="6">
         <f t="shared" si="31"/>
-        <v>0.94115213673163356</v>
-      </c>
-      <c r="H109" s="10">
-        <f t="shared" si="32"/>
-        <v>0.98152486515802717</v>
-      </c>
-      <c r="I109" s="7">
-        <f t="shared" si="26"/>
-        <v>2033889.7729504323</v>
-      </c>
-      <c r="J109" s="6">
-        <f t="shared" si="27"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K109" s="14">
@@ -5026,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C110" s="2">
@@ -5053,11 +5053,11 @@
         <v>0.99996183071057509</v>
       </c>
       <c r="I110" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>115451521.19999999</v>
       </c>
       <c r="J110" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
     </row>
@@ -5067,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C111" s="12">
@@ -5075,31 +5075,31 @@
         <v>0.04</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" ref="D111:D126" si="48">C111/B111</f>
+        <f t="shared" ref="D111:D126" si="53">C111/B111</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="E111" s="9">
-        <f t="shared" ref="E111:E126" si="49">POWER(1/D111-1,A111)</f>
+        <f t="shared" ref="E111:E126" si="54">POWER(1/D111-1,A111)</f>
         <v>274.625</v>
       </c>
       <c r="F111" s="9">
-        <f t="shared" ref="F111:F126" si="50">POWER((1/C111-1)*B111,A111)</f>
+        <f t="shared" ref="F111:F126" si="55">POWER((1/C111-1)*B111,A111)</f>
         <v>373.24799999999988</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" ref="G111:G126" si="51">E111/(E111+1)</f>
+        <f t="shared" ref="G111:G126" si="56">E111/(E111+1)</f>
         <v>0.99637188208616778</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" ref="H111:H126" si="52">F111/(F111+1)</f>
+        <f t="shared" ref="H111:H126" si="57">F111/(F111+1)</f>
         <v>0.99732797503259873</v>
       </c>
       <c r="I111" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2362291.1999999993</v>
       </c>
       <c r="J111" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K111" s="14">
@@ -5109,11 +5109,11 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" ref="A112" si="53">A111</f>
+        <f t="shared" ref="A112" si="58">A111</f>
         <v>3</v>
       </c>
       <c r="B112" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C112" s="12">
@@ -5121,31 +5121,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23333333333333336</v>
       </c>
       <c r="E112" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>35.472303206997054</v>
       </c>
       <c r="F112" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>63.316731778425634</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.97258193445243801</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98445194629221755</v>
       </c>
       <c r="I112" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1538593.6198250731</v>
       </c>
       <c r="J112" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K112" s="14">
@@ -5155,43 +5155,43 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" ref="A113" si="54">A112</f>
+        <f t="shared" ref="A113" si="59">A112</f>
         <v>3</v>
       </c>
       <c r="B113" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C113" s="2">
-        <f>C112+IF(K112&gt;0, (C112-C111)*IF(C112&gt;C111,1,1/2), -(C112-C111)*IF(C112&lt;C111,1,1/2))</f>
+        <f t="shared" ref="C113:C126" si="60">C112+IF(K112&gt;0, (C112-C111)*IF(C112&gt;C111,1,1/2), -(C112-C111)*IF(C112&lt;C111,1,1/2))</f>
         <v>0.1</v>
       </c>
       <c r="D113" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="E113" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>7.9999999999999947</v>
       </c>
       <c r="F113" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>19.682999999999993</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.95165111444181205</v>
       </c>
       <c r="I113" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1886605.2</v>
       </c>
       <c r="J113" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K113" s="14">
@@ -5201,43 +5201,43 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" ref="A114" si="55">A113</f>
+        <f t="shared" ref="A114" si="61">A113</f>
         <v>3</v>
       </c>
       <c r="B114" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C114" s="2">
-        <f>C113+IF(K113&gt;0, (C113-C112)*IF(C113&gt;C112,1,1/2), -(C113-C112)*IF(C113&lt;C112,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="D114" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.28333333333333338</v>
       </c>
       <c r="E114" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>16.182983920211672</v>
       </c>
       <c r="F114" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>33.679859352737623</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.94180289031035291</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.97116481961968915</v>
       </c>
       <c r="I114" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1678191.3811520454</v>
       </c>
       <c r="J114" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K114" s="14">
@@ -5247,43 +5247,43 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" ref="A115" si="56">A114</f>
+        <f t="shared" ref="A115" si="62">A114</f>
         <v>3</v>
       </c>
       <c r="B115" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C115" s="2">
-        <f>C114+IF(K114&gt;0, (C114-C113)*IF(C114&gt;C113,1,1/2), -(C114-C113)*IF(C114&lt;C113,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.7500000000000013E-2</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.25833333333333341</v>
       </c>
       <c r="E115" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>23.663824645026992</v>
       </c>
       <c r="F115" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>45.536304353663823</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.95945478795797268</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.97851140063894504</v>
       </c>
       <c r="I115" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1595359.7391561212</v>
       </c>
       <c r="J115" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K115" s="14">
@@ -5293,43 +5293,43 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" ref="A116" si="57">A115</f>
+        <f t="shared" ref="A116" si="63">A115</f>
         <v>3</v>
       </c>
       <c r="B116" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C116" s="2">
-        <f>C115+IF(K115&gt;0, (C115-C114)*IF(C115&gt;C114,1,1/2), -(C115-C114)*IF(C115&lt;C114,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.375000000000001E-2</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.24583333333333338</v>
       </c>
       <c r="E116" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>28.87218751673732</v>
       </c>
       <c r="F116" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>53.488738220558048</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.96652404516945056</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98164758383737527</v>
       </c>
       <c r="I116" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1562850.4481704556</v>
       </c>
       <c r="J116" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K116" s="14">
@@ -5339,43 +5339,43 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" ref="A117" si="58">A116</f>
+        <f t="shared" ref="A117" si="64">A116</f>
         <v>3</v>
       </c>
       <c r="B117" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C117" s="2">
-        <f>C116+IF(K116&gt;0, (C116-C115)*IF(C116&gt;C115,1,1/2), -(C116-C115)*IF(C116&lt;C115,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.1875000000000008E-2</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23958333333333337</v>
       </c>
       <c r="E117" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>31.973124023999315</v>
       </c>
       <c r="F117" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>58.136596613791369</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.96967227008056145</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98308999744217973</v>
       </c>
       <c r="I117" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1549551.0251006822</v>
       </c>
       <c r="J117" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K117" s="14">
@@ -5385,43 +5385,43 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" ref="A118" si="59">A117</f>
+        <f t="shared" ref="A118" si="65">A117</f>
         <v>3</v>
       </c>
       <c r="B118" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C118" s="2">
-        <f>C117+IF(K117&gt;0, (C117-C116)*IF(C117&gt;C116,1,1/2), -(C117-C116)*IF(C117&lt;C116,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.0937500000000014E-2</v>
       </c>
       <c r="D118" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23645833333333338</v>
       </c>
       <c r="E118" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>33.669320547695499</v>
       </c>
       <c r="F118" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>60.65560238898874</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.97115605428077911</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98378087373648637</v>
       </c>
       <c r="I118" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1543759.6505115507</v>
       </c>
       <c r="J118" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K118" s="14">
@@ -5431,43 +5431,43 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" ref="A119" si="60">A118</f>
+        <f t="shared" ref="A119" si="66">A118</f>
         <v>3</v>
       </c>
       <c r="B119" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C119" s="2">
-        <f>C118+IF(K118&gt;0, (C118-C117)*IF(C118&gt;C117,1,1/2), -(C118-C117)*IF(C118&lt;C117,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.0468750000000024E-2</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23489583333333341</v>
       </c>
       <c r="E119" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>34.556978415743131</v>
       </c>
       <c r="F119" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>61.967795338963732</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.971876125459602</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98411886592794184</v>
       </c>
       <c r="I119" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1541095.7994914409</v>
       </c>
       <c r="J119" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K119" s="14">
@@ -5477,43 +5477,43 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" ref="A120" si="61">A119</f>
+        <f t="shared" ref="A120" si="67">A119</f>
         <v>3</v>
       </c>
       <c r="B120" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C120" s="2">
-        <f>C119+IF(K119&gt;0, (C119-C118)*IF(C119&gt;C118,1,1/2), -(C119-C118)*IF(C119&lt;C118,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.0234375000000029E-2</v>
       </c>
       <c r="D120" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23411458333333343</v>
       </c>
       <c r="E120" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>35.011119542491862</v>
       </c>
       <c r="F120" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>62.6375921316126</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.97223079946681368</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98428601764297052</v>
       </c>
       <c r="I120" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1539824.155379096</v>
       </c>
       <c r="J120" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K120" s="14">
@@ -5523,43 +5523,43 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" ref="A121" si="62">A120</f>
+        <f t="shared" ref="A121" si="68">A120</f>
         <v>3</v>
       </c>
       <c r="B121" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C121" s="2">
-        <f>C120+IF(K120&gt;0, (C120-C119)*IF(C120&gt;C119,1,1/2), -(C120-C119)*IF(C120&lt;C119,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.0117187500000039E-2</v>
       </c>
       <c r="D121" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23372395833333348</v>
       </c>
       <c r="E121" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>35.240823048551171</v>
       </c>
       <c r="F121" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>62.975984111857606</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.97240680768589838</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98436913454505726</v>
       </c>
       <c r="I121" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1539203.7050921742</v>
       </c>
       <c r="J121" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K121" s="14">
@@ -5569,43 +5569,43 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" ref="A122" si="63">A121</f>
+        <f t="shared" ref="A122" si="69">A121</f>
         <v>3</v>
       </c>
       <c r="B122" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C122" s="2">
-        <f>C121+IF(K121&gt;0, (C121-C120)*IF(C121&gt;C120,1,1/2), -(C121-C120)*IF(C121&lt;C120,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.0058593750000037E-2</v>
       </c>
       <c r="D122" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23352864583333346</v>
       </c>
       <c r="E122" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>35.356340035809801</v>
       </c>
       <c r="F122" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>63.146062224918602</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.97249448104470826</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98441057852477898</v>
       </c>
       <c r="I122" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1538897.3612896425</v>
       </c>
       <c r="J122" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K122" s="14">
@@ -5615,43 +5615,43 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" ref="A123" si="64">A122</f>
+        <f t="shared" ref="A123" si="70">A122</f>
         <v>3</v>
       </c>
       <c r="B123" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C123" s="2">
-        <f>C122+IF(K122&gt;0, (C122-C121)*IF(C122&gt;C121,1,1/2), -(C122-C121)*IF(C122&lt;C121,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.0029296875000036E-2</v>
       </c>
       <c r="D123" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23343098958333347</v>
       </c>
       <c r="E123" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>35.414265721524131</v>
       </c>
       <c r="F123" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>63.231322913485222</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.97253823521672966</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98443127193025537</v>
       </c>
       <c r="I123" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1538745.1645693358</v>
       </c>
       <c r="J123" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K123" s="14">
@@ -5661,43 +5661,43 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" ref="A124" si="65">A123</f>
+        <f t="shared" ref="A124" si="71">A123</f>
         <v>3</v>
       </c>
       <c r="B124" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="C124" s="2">
-        <f>C123+IF(K123&gt;0, (C123-C122)*IF(C123&gt;C122,1,1/2), -(C123-C122)*IF(C123&lt;C122,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.0014648437500035E-2</v>
       </c>
       <c r="D124" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23338216145833346</v>
       </c>
       <c r="E124" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>35.443270473392914</v>
       </c>
       <c r="F124" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>63.274008804098216</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.97256009169840851</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98444161149107856</v>
       </c>
       <c r="I124" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1538669.3106130329</v>
       </c>
       <c r="J124" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K124" s="14">
@@ -5707,43 +5707,43 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" ref="A125" si="66">A124</f>
+        <f t="shared" ref="A125" si="72">A124</f>
         <v>3</v>
       </c>
       <c r="B125" s="1">
-        <f t="shared" ref="B125:B160" si="67">B124</f>
+        <f t="shared" ref="B125:B160" si="73">B124</f>
         <v>0.3</v>
       </c>
       <c r="C125" s="2">
-        <f>C124+IF(K124&gt;0, (C124-C123)*IF(C124&gt;C123,1,1/2), -(C124-C123)*IF(C124&lt;C123,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.0007324218750028E-2</v>
       </c>
       <c r="D125" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23335774739583343</v>
       </c>
       <c r="E125" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>35.457783340488525</v>
       </c>
       <c r="F125" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>63.295365653318527</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.97257101479097763</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98444677948653381</v>
       </c>
       <c r="I125" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1538631.444812102</v>
       </c>
       <c r="J125" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K125" s="14">
@@ -5753,43 +5753,43 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" ref="A126" si="68">A125</f>
+        <f t="shared" ref="A126" si="74">A125</f>
         <v>3</v>
       </c>
       <c r="B126" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C126" s="2">
-        <f>C125+IF(K125&gt;0, (C125-C124)*IF(C125&gt;C124,1,1/2), -(C125-C124)*IF(C125&lt;C124,1,1/2))</f>
+        <f t="shared" si="60"/>
         <v>7.0003662109375031E-2</v>
       </c>
       <c r="D126" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.23334554036458344</v>
       </c>
       <c r="E126" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>35.465042398567341</v>
       </c>
       <c r="F126" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>63.306047556076152</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.97257647505054623</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.98444936303808783</v>
       </c>
       <c r="I126" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1538612.5272154855</v>
       </c>
       <c r="J126" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K126" s="14">
@@ -5802,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C127" s="2">
@@ -5829,11 +5829,11 @@
         <v>0.99886761258761847</v>
       </c>
       <c r="I127" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4061195.9999999995</v>
       </c>
       <c r="J127" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
     </row>
@@ -5843,7 +5843,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C128" s="12">
@@ -5851,31 +5851,31 @@
         <v>0.04</v>
       </c>
       <c r="D128" s="2">
-        <f t="shared" ref="D128:D143" si="69">C128/B128</f>
+        <f t="shared" ref="D128:D143" si="75">C128/B128</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="E128" s="9">
-        <f t="shared" ref="E128:E143" si="70">POWER(1/D128-1,A128)</f>
+        <f t="shared" ref="E128:E143" si="76">POWER(1/D128-1,A128)</f>
         <v>42.25</v>
       </c>
       <c r="F128" s="9">
-        <f t="shared" ref="F128:F143" si="71">POWER((1/C128-1)*B128,A128)</f>
+        <f t="shared" ref="F128:F143" si="77">POWER((1/C128-1)*B128,A128)</f>
         <v>51.839999999999989</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" ref="G128:G143" si="72">E128/(E128+1)</f>
+        <f t="shared" ref="G128:G143" si="78">E128/(E128+1)</f>
         <v>0.97687861271676302</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" ref="H128:H143" si="73">F128/(F128+1)</f>
+        <f t="shared" ref="H128:H143" si="79">F128/(F128+1)</f>
         <v>0.98107494322482969</v>
       </c>
       <c r="I128" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>948096</v>
       </c>
       <c r="J128" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K128" s="14">
@@ -5885,11 +5885,11 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" ref="A129" si="74">A128</f>
+        <f t="shared" ref="A129" si="80">A128</f>
         <v>2</v>
       </c>
       <c r="B129" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C129" s="12">
@@ -5897,31 +5897,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D129" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.23333333333333336</v>
       </c>
       <c r="E129" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>10.795918367346932</v>
       </c>
       <c r="F129" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>15.885918367346935</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.91522491349480961</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.94077905754100144</v>
       </c>
       <c r="I129" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1329898.0408163266</v>
       </c>
       <c r="J129" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K129" s="14">
@@ -5931,43 +5931,43 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" ref="A130" si="75">A129</f>
+        <f t="shared" ref="A130" si="81">A129</f>
         <v>2</v>
       </c>
       <c r="B130" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C130" s="2">
-        <f>C129+IF(K129&gt;0, (C129-C128)*IF(C129&gt;C128,1,1/2), -(C129-C128)*IF(C129&lt;C128,1,1/2))</f>
+        <f t="shared" ref="C130:C143" si="82">C129+IF(K129&gt;0, (C129-C128)*IF(C129&gt;C128,1,1/2), -(C129-C128)*IF(C129&lt;C128,1,1/2))</f>
         <v>5.5000000000000007E-2</v>
       </c>
       <c r="D130" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.18333333333333338</v>
       </c>
       <c r="E130" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>19.842975206611559</v>
       </c>
       <c r="F130" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>26.569338842975196</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.95202220459952414</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.9637278207614759</v>
       </c>
       <c r="I130" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1106905.0909090911</v>
       </c>
       <c r="J130" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K130" s="14">
@@ -5977,43 +5977,43 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" ref="A131" si="76">A130</f>
+        <f t="shared" ref="A131" si="83">A130</f>
         <v>2</v>
       </c>
       <c r="B131" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C131" s="2">
-        <f>C130+IF(K130&gt;0, (C130-C129)*IF(C130&gt;C129,1,1/2), -(C130-C129)*IF(C130&lt;C129,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.7500000000000007E-2</v>
       </c>
       <c r="D131" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.15833333333333335</v>
       </c>
       <c r="E131" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>28.257617728531848</v>
       </c>
       <c r="F131" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>36.189722991689742</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.96582086725998861</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.97311085107508177</v>
       </c>
       <c r="I131" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1014234.781163435</v>
       </c>
       <c r="J131" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K131" s="14">
@@ -6023,43 +6023,43 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" ref="A132" si="77">A131</f>
+        <f t="shared" ref="A132" si="84">A131</f>
         <v>2</v>
       </c>
       <c r="B132" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C132" s="2">
-        <f>C131+IF(K131&gt;0, (C131-C130)*IF(C131&gt;C130,1,1/2), -(C131-C130)*IF(C131&lt;C130,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.3750000000000011E-2</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="E132" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>34.306122448979565</v>
       </c>
       <c r="F132" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>42.996122448979563</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.97167630057803467</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.97727072422894412</v>
       </c>
       <c r="I132" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>976682.93877551029</v>
       </c>
       <c r="J132" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K132" s="14">
@@ -6069,43 +6069,43 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133" si="78">A132</f>
+        <f t="shared" ref="A133" si="85">A132</f>
         <v>2</v>
       </c>
       <c r="B133" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C133" s="2">
-        <f>C132+IF(K132&gt;0, (C132-C131)*IF(C132&gt;C131,1,1/2), -(C132-C131)*IF(C132&lt;C131,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.1875000000000009E-2</v>
       </c>
       <c r="D133" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.13958333333333336</v>
       </c>
       <c r="E133" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>37.997104032078397</v>
       </c>
       <c r="F133" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>47.116954778347036</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.97435707022815299</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.97921730490621139</v>
       </c>
       <c r="I133" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>961064.6010247271</v>
       </c>
       <c r="J133" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K133" s="14">
@@ -6115,43 +6115,43 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f t="shared" ref="A134" si="79">A133</f>
+        <f t="shared" ref="A134" si="86">A133</f>
         <v>2</v>
       </c>
       <c r="B134" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C134" s="2">
-        <f>C133+IF(K133&gt;0, (C133-C132)*IF(C133&gt;C132,1,1/2), -(C133-C132)*IF(C133&lt;C132,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.0937500000000009E-2</v>
       </c>
       <c r="D134" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.13645833333333338</v>
       </c>
       <c r="E134" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>40.04667560165489</v>
       </c>
       <c r="F134" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>49.396217586387714</v>
       </c>
       <c r="G134" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.97563749109173459</v>
       </c>
       <c r="H134" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.98015724100155277</v>
       </c>
       <c r="I134" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>954218.35738010611</v>
       </c>
       <c r="J134" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K134" s="14">
@@ -6161,43 +6161,43 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f t="shared" ref="A135" si="80">A134</f>
+        <f t="shared" ref="A135" si="87">A134</f>
         <v>2</v>
       </c>
       <c r="B135" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C135" s="2">
-        <f>C134+IF(K134&gt;0, (C134-C133)*IF(C134&gt;C133,1,1/2), -(C134-C133)*IF(C134&lt;C133,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.0468750000000012E-2</v>
       </c>
       <c r="D135" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.13489583333333338</v>
       </c>
       <c r="E135" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>41.128203217006273</v>
       </c>
       <c r="F135" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>50.596581595384656</v>
       </c>
       <c r="G135" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.97626293258108099</v>
       </c>
       <c r="H135" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.98061887107479517</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>951062.45901969273</v>
       </c>
       <c r="J135" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K135" s="14">
@@ -6207,43 +6207,43 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" ref="A136" si="81">A135</f>
+        <f t="shared" ref="A136" si="88">A135</f>
         <v>2</v>
       </c>
       <c r="B136" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C136" s="2">
-        <f>C135+IF(K135&gt;0, (C135-C134)*IF(C135&gt;C134,1,1/2), -(C135-C134)*IF(C135&lt;C134,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.0234375000000017E-2</v>
       </c>
       <c r="D136" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.1341145833333334</v>
       </c>
       <c r="E136" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>41.683947591667412</v>
       </c>
       <c r="F136" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>51.212782543123716</v>
       </c>
       <c r="G136" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.97657198885242713</v>
       </c>
       <c r="H136" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.98084760184588748</v>
       </c>
       <c r="I136" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>949554.99318974465</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K136" s="14">
@@ -6253,43 +6253,43 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" ref="A137" si="82">A136</f>
+        <f t="shared" ref="A137" si="89">A136</f>
         <v>2</v>
       </c>
       <c r="B137" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C137" s="2">
-        <f>C136+IF(K136&gt;0, (C136-C135)*IF(C136&gt;C135,1,1/2), -(C136-C135)*IF(C136&lt;C135,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.0117187500000019E-2</v>
       </c>
       <c r="D137" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.13372395833333339</v>
       </c>
       <c r="E137" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>41.965669854531306</v>
       </c>
       <c r="F137" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>51.524997994745512</v>
       </c>
       <c r="G137" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.97672560433979738</v>
       </c>
       <c r="H137" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.9809614462031957</v>
       </c>
       <c r="I137" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>948819.36617688066</v>
       </c>
       <c r="J137" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K137" s="14">
@@ -6299,43 +6299,43 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" ref="A138" si="83">A137</f>
+        <f t="shared" ref="A138" si="90">A137</f>
         <v>2</v>
       </c>
       <c r="B138" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C138" s="2">
-        <f>C137+IF(K137&gt;0, (C137-C136)*IF(C137&gt;C136,1,1/2), -(C137-C136)*IF(C137&lt;C136,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.0058593750000024E-2</v>
       </c>
       <c r="D138" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.13352864583333343</v>
       </c>
       <c r="E138" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>42.107506987232611</v>
       </c>
       <c r="F138" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>51.682148625457863</v>
       </c>
       <c r="G138" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.97680218435512456</v>
       </c>
       <c r="H138" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.9810182381301592</v>
       </c>
       <c r="I138" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>948456.14145201503</v>
       </c>
       <c r="J138" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K138" s="14">
@@ -6345,43 +6345,43 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" ref="A139" si="84">A138</f>
+        <f t="shared" ref="A139" si="91">A138</f>
         <v>2</v>
       </c>
       <c r="B139" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C139" s="2">
-        <f>C138+IF(K138&gt;0, (C138-C137)*IF(C138&gt;C137,1,1/2), -(C138-C137)*IF(C138&lt;C137,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.0029296875000023E-2</v>
       </c>
       <c r="D139" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.13343098958333341</v>
       </c>
       <c r="E139" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>42.178671262681839</v>
       </c>
       <c r="F139" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>51.760986461510818</v>
       </c>
       <c r="G139" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.97684041748491057</v>
       </c>
       <c r="H139" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.98104660153142698</v>
       </c>
       <c r="I139" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>948275.68418064807</v>
       </c>
       <c r="J139" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K139" s="14">
@@ -6391,43 +6391,43 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" ref="A140" si="85">A139</f>
+        <f t="shared" ref="A140" si="92">A139</f>
         <v>2</v>
       </c>
       <c r="B140" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C140" s="2">
-        <f>C139+IF(K139&gt;0, (C139-C138)*IF(C139&gt;C138,1,1/2), -(C139-C138)*IF(C139&lt;C138,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.0014648437500022E-2</v>
       </c>
       <c r="D140" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.13338216145833343</v>
       </c>
       <c r="E140" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>42.2143150427666</v>
       </c>
       <c r="F140" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>51.800471235567095</v>
       </c>
       <c r="G140" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.9768595198371105</v>
       </c>
       <c r="H140" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.98106077509159828</v>
       </c>
       <c r="I140" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>948185.74531149562</v>
       </c>
       <c r="J140" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K140" s="14">
@@ -6437,43 +6437,43 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f t="shared" ref="A141" si="86">A140</f>
+        <f t="shared" ref="A141" si="93">A140</f>
         <v>2</v>
       </c>
       <c r="B141" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C141" s="2">
-        <f>C140+IF(K140&gt;0, (C140-C139)*IF(C140&gt;C139,1,1/2), -(C140-C139)*IF(C140&lt;C139,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.0007324218750022E-2</v>
       </c>
       <c r="D141" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.13335774739583342</v>
       </c>
       <c r="E141" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>42.232152370378351</v>
       </c>
       <c r="F141" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>51.82023011493196</v>
       </c>
       <c r="G141" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.97686906746088409</v>
       </c>
       <c r="H141" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.98106785983657985</v>
       </c>
       <c r="I141" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>948140.84844320093</v>
       </c>
       <c r="J141" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K141" s="14">
@@ -6483,43 +6483,43 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f t="shared" ref="A142" si="87">A141</f>
+        <f t="shared" ref="A142" si="94">A141</f>
         <v>2</v>
       </c>
       <c r="B142" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C142" s="2">
-        <f>C141+IF(K141&gt;0, (C141-C140)*IF(C141&gt;C140,1,1/2), -(C141-C140)*IF(C141&lt;C140,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.0003662109375018E-2</v>
       </c>
       <c r="D142" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.1333455403645834</v>
       </c>
       <c r="E142" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>42.241074896954864</v>
       </c>
       <c r="F142" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>51.830113681245848</v>
       </c>
       <c r="G142" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.9768738403847953</v>
       </c>
       <c r="H142" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.98107140170029594</v>
       </c>
       <c r="I142" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>948118.41816623206</v>
       </c>
       <c r="J142" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K142" s="14">
@@ -6529,43 +6529,43 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" ref="A143" si="88">A142</f>
+        <f t="shared" ref="A143" si="95">A142</f>
         <v>2</v>
       </c>
       <c r="B143" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C143" s="2">
-        <f>C142+IF(K142&gt;0, (C142-C141)*IF(C142&gt;C141,1,1/2), -(C142-C141)*IF(C142&lt;C141,1,1/2))</f>
+        <f t="shared" si="82"/>
         <v>4.000183105468752E-2</v>
       </c>
       <c r="D143" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.13333943684895841</v>
       </c>
       <c r="E143" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>42.245537126358421</v>
       </c>
       <c r="F143" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>51.83505649650445</v>
       </c>
       <c r="G143" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.97687622662477014</v>
       </c>
       <c r="H143" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0.98107317250496062</v>
       </c>
       <c r="I143" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>948107.20756899496</v>
       </c>
       <c r="J143" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K143" s="14">
@@ -6578,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="B144" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C144" s="2">
@@ -6605,11 +6605,11 @@
         <v>0.99667442633854342</v>
       </c>
       <c r="I144" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1336680</v>
       </c>
       <c r="J144" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="B145" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C145" s="12">
@@ -6627,31 +6627,31 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D145" s="2">
-        <f t="shared" ref="D145:D160" si="89">C145/B145</f>
+        <f t="shared" ref="D145:D160" si="96">C145/B145</f>
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="E145" s="9">
-        <f t="shared" ref="E145:E160" si="90">POWER(1/D145-1,A145)</f>
+        <f t="shared" ref="E145:E160" si="97">POWER(1/D145-1,A145)</f>
         <v>74</v>
       </c>
       <c r="F145" s="9">
-        <f t="shared" ref="F145:F160" si="91">POWER((1/C145-1)*B145,A145)</f>
+        <f t="shared" ref="F145:F160" si="98">POWER((1/C145-1)*B145,A145)</f>
         <v>74.7</v>
       </c>
       <c r="G145" s="10">
-        <f t="shared" ref="G145:G160" si="92">E145/(E145+1)</f>
+        <f t="shared" ref="G145:G160" si="99">E145/(E145+1)</f>
         <v>0.98666666666666669</v>
       </c>
       <c r="H145" s="10">
-        <f t="shared" ref="H145:H160" si="93">F145/(F145+1)</f>
+        <f t="shared" ref="H145:H160" si="100">F145/(F145+1)</f>
         <v>0.98678996036988109</v>
       </c>
       <c r="I145" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>400680</v>
       </c>
       <c r="J145" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K145" s="14">
@@ -6661,43 +6661,43 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" ref="A146" si="94">A145</f>
+        <f t="shared" ref="A146" si="101">A145</f>
         <v>1</v>
       </c>
       <c r="B146" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C146" s="2">
-        <f>C145+IF(K145&gt;0, (C145-C144)*IF(C145&gt;C144,1,1/2), -(C145-C144)*IF(C145&lt;C144,1,1/2))</f>
+        <f t="shared" ref="C146:C160" si="102">C145+IF(K145&gt;0, (C145-C144)*IF(C145&gt;C144,1,1/2), -(C145-C144)*IF(C145&lt;C144,1,1/2))</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D146" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>2.3333333333333334E-2</v>
       </c>
       <c r="E146" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>41.857142857142854</v>
       </c>
       <c r="F146" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>42.557142857142857</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.97666666666666668</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.97704165300098389</v>
       </c>
       <c r="I146" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>313251.42857142858</v>
       </c>
       <c r="J146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K146" s="14">
@@ -6707,43 +6707,43 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" ref="A147" si="95">A146</f>
+        <f t="shared" ref="A147" si="103">A146</f>
         <v>1</v>
       </c>
       <c r="B147" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C147" s="2">
-        <f>C146+IF(K146&gt;0, (C146-C145)*IF(C146&gt;C145,1,1/2), -(C146-C145)*IF(C146&lt;C145,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>0.01</v>
       </c>
       <c r="D147" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="E147" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>29</v>
       </c>
       <c r="F147" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>29.7</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96666666666666667</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96742671009771986</v>
       </c>
       <c r="I147" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>310680</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K147" s="14">
@@ -6753,43 +6753,43 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" ref="A148" si="96">A147</f>
+        <f t="shared" ref="A148" si="104">A147</f>
         <v>1</v>
       </c>
       <c r="B148" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C148" s="2">
-        <f>C147+IF(K147&gt;0, (C147-C146)*IF(C147&gt;C146,1,1/2), -(C147-C146)*IF(C147&lt;C146,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="D148" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>4.3333333333333342E-2</v>
       </c>
       <c r="E148" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>22.076923076923073</v>
       </c>
       <c r="F148" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>22.776923076923076</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.95666666666666667</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.95794241345842768</v>
       </c>
       <c r="I148" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>334218.46153846156</v>
       </c>
       <c r="J148" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K148" s="14">
@@ -6799,43 +6799,43 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f t="shared" ref="A149" si="97">A148</f>
+        <f t="shared" ref="A149" si="105">A148</f>
         <v>1</v>
       </c>
       <c r="B149" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C149" s="2">
-        <f>C148+IF(K148&gt;0, (C148-C147)*IF(C148&gt;C147,1,1/2), -(C148-C147)*IF(C148&lt;C147,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.15E-2</v>
       </c>
       <c r="D149" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.8333333333333337E-2</v>
       </c>
       <c r="E149" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>25.086956521739129</v>
       </c>
       <c r="F149" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>25.786956521739132</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96166666666666667</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96266839798733972</v>
       </c>
       <c r="I149" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>320462.60869565216</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K149" s="14">
@@ -6845,43 +6845,43 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" ref="A150" si="98">A149</f>
+        <f t="shared" ref="A150" si="106">A149</f>
         <v>1</v>
       </c>
       <c r="B150" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C150" s="2">
-        <f>C149+IF(K149&gt;0, (C149-C148)*IF(C149&gt;C148,1,1/2), -(C149-C148)*IF(C149&lt;C148,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0749999999999999E-2</v>
       </c>
       <c r="D150" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.5833333333333335E-2</v>
       </c>
       <c r="E150" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>26.906976744186046</v>
       </c>
       <c r="F150" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>27.606976744186049</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96416666666666662</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96504349239899201</v>
       </c>
       <c r="I150" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>314970.69767441857</v>
       </c>
       <c r="J150" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K150" s="14">
@@ -6891,43 +6891,43 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f t="shared" ref="A151" si="99">A150</f>
+        <f t="shared" ref="A151" si="107">A150</f>
         <v>1</v>
       </c>
       <c r="B151" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C151" s="2">
-        <f>C150+IF(K150&gt;0, (C150-C149)*IF(C150&gt;C149,1,1/2), -(C150-C149)*IF(C150&lt;C149,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0374999999999999E-2</v>
       </c>
       <c r="D151" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.4583333333333334E-2</v>
       </c>
       <c r="E151" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>27.91566265060241</v>
       </c>
       <c r="F151" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>28.61566265060241</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.9654166666666667</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96623408323501891</v>
       </c>
       <c r="I151" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>312658.9156626506</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K151" s="14">
@@ -6937,43 +6937,43 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f t="shared" ref="A152" si="100">A151</f>
+        <f t="shared" ref="A152" si="108">A151</f>
         <v>1</v>
       </c>
       <c r="B152" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C152" s="2">
-        <f>C151+IF(K151&gt;0, (C151-C150)*IF(C151&gt;C150,1,1/2), -(C151-C150)*IF(C151&lt;C150,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0187499999999999E-2</v>
       </c>
       <c r="D152" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.3958333333333333E-2</v>
       </c>
       <c r="E152" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>28.447852760736197</v>
       </c>
       <c r="F152" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>29.1478527607362</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96604166666666669</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96683014183675542</v>
       </c>
       <c r="I152" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>311625.55214723921</v>
       </c>
       <c r="J152" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K152" s="14">
@@ -6983,43 +6983,43 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" ref="A153" si="101">A152</f>
+        <f t="shared" ref="A153" si="109">A152</f>
         <v>1</v>
       </c>
       <c r="B153" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C153" s="2">
-        <f>C152+IF(K152&gt;0, (C152-C151)*IF(C152&gt;C151,1,1/2), -(C152-C151)*IF(C152&lt;C151,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0093749999999999E-2</v>
       </c>
       <c r="D153" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.3645833333333333E-2</v>
       </c>
       <c r="E153" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>28.721362229102166</v>
       </c>
       <c r="F153" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>29.421362229102172</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96635416666666663</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96712836221898824</v>
       </c>
       <c r="I153" s="7">
-        <f t="shared" ref="I153:I216" si="102">MAX(E153,F153)*$D$21+C153*$D$20</f>
+        <f t="shared" ref="I153:I216" si="110">MAX(E153,F153)*$D$21+C153*$D$20</f>
         <v>311141.49380804953</v>
       </c>
       <c r="J153" s="6">
-        <f t="shared" ref="J153:J216" si="103">2*SQRT($D$20*B153*$D$21)</f>
+        <f t="shared" ref="J153:J216" si="111">2*SQRT($D$20*B153*$D$21)</f>
         <v>308285.58188796311</v>
       </c>
       <c r="K153" s="14">
@@ -7029,43 +7029,43 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f t="shared" ref="A154" si="104">A153</f>
+        <f t="shared" ref="A154" si="112">A153</f>
         <v>1</v>
       </c>
       <c r="B154" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C154" s="2">
-        <f>C153+IF(K153&gt;0, (C153-C152)*IF(C153&gt;C152,1,1/2), -(C153-C152)*IF(C153&lt;C152,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0046874999999999E-2</v>
       </c>
       <c r="D154" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.348958333333333E-2</v>
       </c>
       <c r="E154" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>28.86003110419907</v>
       </c>
       <c r="F154" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>29.560031104199069</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96651041666666671</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96727752021618207</v>
       </c>
       <c r="I154" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>310907.88685847586</v>
       </c>
       <c r="J154" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K154" s="14">
@@ -7075,43 +7075,43 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f t="shared" ref="A155" si="105">A154</f>
+        <f t="shared" ref="A155" si="113">A154</f>
         <v>1</v>
       </c>
       <c r="B155" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C155" s="2">
-        <f>C154+IF(K154&gt;0, (C154-C153)*IF(C154&gt;C153,1,1/2), -(C154-C153)*IF(C154&lt;C153,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0023437499999999E-2</v>
       </c>
       <c r="D155" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.3411458333333331E-2</v>
       </c>
       <c r="E155" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>28.929851909586908</v>
       </c>
       <c r="F155" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>29.629851909586904</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96658854166666663</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96735211117076902</v>
       </c>
       <c r="I155" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>310793.2234021824</v>
       </c>
       <c r="J155" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K155" s="14">
@@ -7121,43 +7121,43 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f t="shared" ref="A156" si="106">A155</f>
+        <f t="shared" ref="A156" si="114">A155</f>
         <v>1</v>
       </c>
       <c r="B156" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C156" s="2">
-        <f>C155+IF(K155&gt;0, (C155-C154)*IF(C155&gt;C154,1,1/2), -(C155-C154)*IF(C155&lt;C154,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0011718749999999E-2</v>
       </c>
       <c r="D156" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.3372395833333332E-2</v>
       </c>
       <c r="E156" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>28.964884900507219</v>
       </c>
       <c r="F156" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>29.664884900507218</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96662760416666671</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.9673894096376191</v>
       </c>
       <c r="I156" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>310736.43106223171</v>
       </c>
       <c r="J156" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K156" s="14">
@@ -7167,43 +7167,43 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f t="shared" ref="A157" si="107">A156</f>
+        <f t="shared" ref="A157" si="115">A156</f>
         <v>1</v>
       </c>
       <c r="B157" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C157" s="2">
-        <f>C156+IF(K156&gt;0, (C156-C155)*IF(C156&gt;C155,1,1/2), -(C156-C155)*IF(C156&lt;C155,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0005859374999999E-2</v>
       </c>
       <c r="D157" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.3352864583333329E-2</v>
       </c>
       <c r="E157" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>28.982432168651187</v>
       </c>
       <c r="F157" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>29.682432168651182</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96664713541666669</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96740805961850318</v>
       </c>
       <c r="I157" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>310708.17029206519</v>
       </c>
       <c r="J157" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K157" s="14">
@@ -7213,43 +7213,43 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f t="shared" ref="A158" si="108">A157</f>
+        <f t="shared" ref="A158" si="116">A157</f>
         <v>1</v>
       </c>
       <c r="B158" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C158" s="2">
-        <f>C157+IF(K157&gt;0, (C157-C156)*IF(C157&gt;C156,1,1/2), -(C157-C156)*IF(C157&lt;C156,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0002929687499999E-2</v>
       </c>
       <c r="D158" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.3343098958333331E-2</v>
       </c>
       <c r="E158" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>28.991213511666505</v>
       </c>
       <c r="F158" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>29.691213511666508</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96665690104166668</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96741738479581874</v>
       </c>
       <c r="I158" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>310694.07382633258</v>
       </c>
       <c r="J158" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K158" s="14">
@@ -7259,43 +7259,43 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" ref="A159" si="109">A158</f>
+        <f t="shared" ref="A159" si="117">A158</f>
         <v>1</v>
       </c>
       <c r="B159" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C159" s="2">
-        <f>C158+IF(K158&gt;0, (C158-C157)*IF(C158&gt;C157,1,1/2), -(C158-C157)*IF(C158&lt;C157,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0001464843749999E-2</v>
       </c>
       <c r="D159" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.3338216145833328E-2</v>
       </c>
       <c r="E159" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>28.995606112385886</v>
       </c>
       <c r="F159" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>29.695606112385885</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96666178385416668</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96742204743119586</v>
       </c>
       <c r="I159" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>310687.03408199787</v>
       </c>
       <c r="J159" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K159" s="14">
@@ -7305,43 +7305,43 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f t="shared" ref="A160" si="110">A159</f>
+        <f t="shared" ref="A160" si="118">A159</f>
         <v>1</v>
       </c>
       <c r="B160" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
       <c r="C160" s="2">
-        <f>C159+IF(K159&gt;0, (C159-C158)*IF(C159&gt;C158,1,1/2), -(C159-C158)*IF(C159&lt;C158,1,1/2))</f>
+        <f t="shared" si="102"/>
         <v>1.0000732421874999E-2</v>
       </c>
       <c r="D160" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>3.3335774739583331E-2</v>
       </c>
       <c r="E160" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>28.997802895295756</v>
       </c>
       <c r="F160" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>29.697802895295755</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>0.96666422526041662</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>0.96742437876056453</v>
       </c>
       <c r="I160" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>310683.51633305126</v>
       </c>
       <c r="J160" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>308285.58188796311</v>
       </c>
       <c r="K160" s="14">
@@ -7380,11 +7380,11 @@
         <v>0.99989590880053725</v>
       </c>
       <c r="I161" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>42446224.439999998</v>
       </c>
       <c r="J161" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
     </row>
@@ -7402,31 +7402,31 @@
         <v>0.04</v>
       </c>
       <c r="D162" s="2">
-        <f t="shared" ref="D162:D177" si="111">C162/B162</f>
+        <f t="shared" ref="D162:D177" si="119">C162/B162</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="E162" s="9">
-        <f t="shared" ref="E162:E177" si="112">POWER(1/D162-1,A162)</f>
+        <f t="shared" ref="E162:E177" si="120">POWER(1/D162-1,A162)</f>
         <v>5.0625</v>
       </c>
       <c r="F162" s="9">
-        <f t="shared" ref="F162:F177" si="113">POWER((1/C162-1)*B162,A162)</f>
+        <f t="shared" ref="F162:F177" si="121">POWER((1/C162-1)*B162,A162)</f>
         <v>33.17760000000002</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" ref="G162:G177" si="114">E162/(E162+1)</f>
+        <f t="shared" ref="G162:G177" si="122">E162/(E162+1)</f>
         <v>0.83505154639175261</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" ref="H162:H177" si="115">F162/(F162+1)</f>
+        <f t="shared" ref="H162:H177" si="123">F162/(F162+1)</f>
         <v>0.9707410701746173</v>
       </c>
       <c r="I162" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>865981.44000000006</v>
       </c>
       <c r="J162" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K162" s="14">
@@ -7436,11 +7436,11 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" ref="A163:B163" si="116">A162</f>
+        <f t="shared" ref="A163:B163" si="124">A162</f>
         <v>4</v>
       </c>
       <c r="B163" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="C163" s="12">
@@ -7448,31 +7448,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D163" s="2">
+        <f t="shared" si="119"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E163" s="9">
+        <f t="shared" si="120"/>
+        <v>3.3735943356934556E-2</v>
+      </c>
+      <c r="F163" s="9">
+        <f t="shared" si="121"/>
+        <v>3.1155852144939606</v>
+      </c>
+      <c r="G163" s="10">
+        <f t="shared" si="122"/>
+        <v>3.2634971796937896E-2</v>
+      </c>
+      <c r="H163" s="10">
+        <f t="shared" si="123"/>
+        <v>0.75702118948278008</v>
+      </c>
+      <c r="I163" s="7">
+        <f t="shared" si="110"/>
+        <v>1273708.5749437737</v>
+      </c>
+      <c r="J163" s="6">
         <f t="shared" si="111"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E163" s="9">
-        <f t="shared" si="112"/>
-        <v>3.3735943356934556E-2</v>
-      </c>
-      <c r="F163" s="9">
-        <f t="shared" si="113"/>
-        <v>3.1155852144939606</v>
-      </c>
-      <c r="G163" s="10">
-        <f t="shared" si="114"/>
-        <v>3.2634971796937896E-2</v>
-      </c>
-      <c r="H163" s="10">
-        <f t="shared" si="115"/>
-        <v>0.75702118948278008</v>
-      </c>
-      <c r="I163" s="7">
-        <f t="shared" si="102"/>
-        <v>1273708.5749437737</v>
-      </c>
-      <c r="J163" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K163" s="14">
@@ -7482,43 +7482,43 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" ref="A164:B164" si="117">A163</f>
+        <f t="shared" ref="A164:B164" si="125">A163</f>
         <v>4</v>
       </c>
       <c r="B164" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>0.1</v>
       </c>
       <c r="C164" s="2">
-        <f>C163+IF(K163&gt;0, (C163-C162)*IF(C163&gt;C162,1,1/2), -(C163-C162)*IF(C163&lt;C162,1,1/2))</f>
+        <f t="shared" ref="C164:C177" si="126">C163+IF(K163&gt;0, (C163-C162)*IF(C163&gt;C162,1,1/2), -(C163-C162)*IF(C163&lt;C162,1,1/2))</f>
         <v>5.5000000000000007E-2</v>
       </c>
       <c r="D164" s="2">
+        <f t="shared" si="119"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E164" s="9">
+        <f t="shared" si="120"/>
+        <v>0.44812512806502269</v>
+      </c>
+      <c r="F164" s="9">
+        <f t="shared" si="121"/>
+        <v>8.7151823031213667</v>
+      </c>
+      <c r="G164" s="10">
+        <f t="shared" si="122"/>
+        <v>0.30945193849636815</v>
+      </c>
+      <c r="H164" s="10">
+        <f t="shared" si="123"/>
+        <v>0.89706832370209744</v>
+      </c>
+      <c r="I164" s="7">
+        <f t="shared" si="110"/>
+        <v>1028346.8021337341</v>
+      </c>
+      <c r="J164" s="6">
         <f t="shared" si="111"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E164" s="9">
-        <f t="shared" si="112"/>
-        <v>0.44812512806502269</v>
-      </c>
-      <c r="F164" s="9">
-        <f t="shared" si="113"/>
-        <v>8.7151823031213667</v>
-      </c>
-      <c r="G164" s="10">
-        <f t="shared" si="114"/>
-        <v>0.30945193849636815</v>
-      </c>
-      <c r="H164" s="10">
-        <f t="shared" si="115"/>
-        <v>0.89706832370209744</v>
-      </c>
-      <c r="I164" s="7">
-        <f t="shared" si="102"/>
-        <v>1028346.8021337341</v>
-      </c>
-      <c r="J164" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K164" s="14">
@@ -7528,43 +7528,43 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" ref="A165:B165" si="118">A164</f>
+        <f t="shared" ref="A165:B165" si="127">A164</f>
         <v>4</v>
       </c>
       <c r="B165" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="127"/>
         <v>0.1</v>
       </c>
       <c r="C165" s="2">
-        <f>C164+IF(K164&gt;0, (C164-C163)*IF(C164&gt;C163,1,1/2), -(C164-C163)*IF(C164&lt;C163,1,1/2))</f>
+        <f t="shared" si="126"/>
         <v>4.7500000000000007E-2</v>
       </c>
       <c r="D165" s="2">
+        <f t="shared" si="119"/>
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="E165" s="9">
+        <f t="shared" si="120"/>
+        <v>1.4923228029250841</v>
+      </c>
+      <c r="F165" s="9">
+        <f t="shared" si="121"/>
+        <v>16.169087039694283</v>
+      </c>
+      <c r="G165" s="10">
+        <f t="shared" si="122"/>
+        <v>0.59876786472989674</v>
+      </c>
+      <c r="H165" s="10">
+        <f t="shared" si="123"/>
+        <v>0.94175578481907407</v>
+      </c>
+      <c r="I165" s="7">
+        <f t="shared" si="110"/>
+        <v>926143.98297465499</v>
+      </c>
+      <c r="J165" s="6">
         <f t="shared" si="111"/>
-        <v>0.47500000000000003</v>
-      </c>
-      <c r="E165" s="9">
-        <f t="shared" si="112"/>
-        <v>1.4923228029250841</v>
-      </c>
-      <c r="F165" s="9">
-        <f t="shared" si="113"/>
-        <v>16.169087039694283</v>
-      </c>
-      <c r="G165" s="10">
-        <f t="shared" si="114"/>
-        <v>0.59876786472989674</v>
-      </c>
-      <c r="H165" s="10">
-        <f t="shared" si="115"/>
-        <v>0.94175578481907407</v>
-      </c>
-      <c r="I165" s="7">
-        <f t="shared" si="102"/>
-        <v>926143.98297465499</v>
-      </c>
-      <c r="J165" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K165" s="14">
@@ -7574,43 +7574,43 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" ref="A166:B166" si="119">A165</f>
+        <f t="shared" ref="A166:B166" si="128">A165</f>
         <v>4</v>
       </c>
       <c r="B166" s="1">
+        <f t="shared" si="128"/>
+        <v>0.1</v>
+      </c>
+      <c r="C166" s="2">
+        <f t="shared" si="126"/>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="D166" s="2">
         <f t="shared" si="119"/>
-        <v>0.1</v>
-      </c>
-      <c r="C166" s="2">
-        <f>C165+IF(K165&gt;0, (C165-C164)*IF(C165&gt;C164,1,1/2), -(C165-C164)*IF(C165&lt;C164,1,1/2))</f>
-        <v>4.3750000000000011E-2</v>
-      </c>
-      <c r="D166" s="2">
+        <v>0.43750000000000011</v>
+      </c>
+      <c r="E166" s="9">
+        <f t="shared" si="120"/>
+        <v>2.7326114119116984</v>
+      </c>
+      <c r="F166" s="9">
+        <f t="shared" si="121"/>
+        <v>22.823043773427713</v>
+      </c>
+      <c r="G166" s="10">
+        <f t="shared" si="122"/>
+        <v>0.73209105110466377</v>
+      </c>
+      <c r="H166" s="10">
+        <f t="shared" si="123"/>
+        <v>0.95802383568150928</v>
+      </c>
+      <c r="I166" s="7">
+        <f t="shared" si="110"/>
+        <v>887921.39260308212</v>
+      </c>
+      <c r="J166" s="6">
         <f t="shared" si="111"/>
-        <v>0.43750000000000011</v>
-      </c>
-      <c r="E166" s="9">
-        <f t="shared" si="112"/>
-        <v>2.7326114119116984</v>
-      </c>
-      <c r="F166" s="9">
-        <f t="shared" si="113"/>
-        <v>22.823043773427713</v>
-      </c>
-      <c r="G166" s="10">
-        <f t="shared" si="114"/>
-        <v>0.73209105110466377</v>
-      </c>
-      <c r="H166" s="10">
-        <f t="shared" si="115"/>
-        <v>0.95802383568150928</v>
-      </c>
-      <c r="I166" s="7">
-        <f t="shared" si="102"/>
-        <v>887921.39260308212</v>
-      </c>
-      <c r="J166" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K166" s="14">
@@ -7620,43 +7620,43 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" ref="A167:B167" si="120">A166</f>
+        <f t="shared" ref="A167:B167" si="129">A166</f>
         <v>4</v>
       </c>
       <c r="B167" s="1">
+        <f t="shared" si="129"/>
+        <v>0.1</v>
+      </c>
+      <c r="C167" s="2">
+        <f t="shared" si="126"/>
+        <v>4.1875000000000009E-2</v>
+      </c>
+      <c r="D167" s="2">
+        <f t="shared" si="119"/>
+        <v>0.41875000000000007</v>
+      </c>
+      <c r="E167" s="9">
         <f t="shared" si="120"/>
-        <v>0.1</v>
-      </c>
-      <c r="C167" s="2">
-        <f>C166+IF(K166&gt;0, (C166-C165)*IF(C166&gt;C165,1,1/2), -(C166-C165)*IF(C166&lt;C165,1,1/2))</f>
-        <v>4.1875000000000009E-2</v>
-      </c>
-      <c r="D167" s="2">
+        <v>3.7122104025875267</v>
+      </c>
+      <c r="F167" s="9">
+        <f t="shared" si="121"/>
+        <v>27.407499105985206</v>
+      </c>
+      <c r="G167" s="10">
+        <f t="shared" si="122"/>
+        <v>0.78778536725548398</v>
+      </c>
+      <c r="H167" s="10">
+        <f t="shared" si="123"/>
+        <v>0.96479802758176236</v>
+      </c>
+      <c r="I167" s="7">
+        <f t="shared" si="110"/>
+        <v>874342.99606633501</v>
+      </c>
+      <c r="J167" s="6">
         <f t="shared" si="111"/>
-        <v>0.41875000000000007</v>
-      </c>
-      <c r="E167" s="9">
-        <f t="shared" si="112"/>
-        <v>3.7122104025875267</v>
-      </c>
-      <c r="F167" s="9">
-        <f t="shared" si="113"/>
-        <v>27.407499105985206</v>
-      </c>
-      <c r="G167" s="10">
-        <f t="shared" si="114"/>
-        <v>0.78778536725548398</v>
-      </c>
-      <c r="H167" s="10">
-        <f t="shared" si="115"/>
-        <v>0.96479802758176236</v>
-      </c>
-      <c r="I167" s="7">
-        <f t="shared" si="102"/>
-        <v>874342.99606633501</v>
-      </c>
-      <c r="J167" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K167" s="14">
@@ -7666,43 +7666,43 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" ref="A168:B168" si="121">A167</f>
+        <f t="shared" ref="A168:B168" si="130">A167</f>
         <v>4</v>
       </c>
       <c r="B168" s="1">
+        <f t="shared" si="130"/>
+        <v>0.1</v>
+      </c>
+      <c r="C168" s="2">
+        <f t="shared" si="126"/>
+        <v>4.0937500000000009E-2</v>
+      </c>
+      <c r="D168" s="2">
+        <f t="shared" si="119"/>
+        <v>0.40937500000000004</v>
+      </c>
+      <c r="E168" s="9">
+        <f t="shared" si="120"/>
+        <v>4.3327340688828189</v>
+      </c>
+      <c r="F168" s="9">
         <f t="shared" si="121"/>
-        <v>0.1</v>
-      </c>
-      <c r="C168" s="2">
-        <f>C167+IF(K167&gt;0, (C167-C166)*IF(C167&gt;C166,1,1/2), -(C167-C166)*IF(C167&lt;C166,1,1/2))</f>
-        <v>4.0937500000000009E-2</v>
-      </c>
-      <c r="D168" s="2">
+        <v>30.123287800515552</v>
+      </c>
+      <c r="G168" s="10">
+        <f t="shared" si="122"/>
+        <v>0.81247892974166347</v>
+      </c>
+      <c r="H168" s="10">
+        <f t="shared" si="123"/>
+        <v>0.96786971844332481</v>
+      </c>
+      <c r="I168" s="7">
+        <f t="shared" si="110"/>
+        <v>869417.46632226859</v>
+      </c>
+      <c r="J168" s="6">
         <f t="shared" si="111"/>
-        <v>0.40937500000000004</v>
-      </c>
-      <c r="E168" s="9">
-        <f t="shared" si="112"/>
-        <v>4.3327340688828189</v>
-      </c>
-      <c r="F168" s="9">
-        <f t="shared" si="113"/>
-        <v>30.123287800515552</v>
-      </c>
-      <c r="G168" s="10">
-        <f t="shared" si="114"/>
-        <v>0.81247892974166347</v>
-      </c>
-      <c r="H168" s="10">
-        <f t="shared" si="115"/>
-        <v>0.96786971844332481</v>
-      </c>
-      <c r="I168" s="7">
-        <f t="shared" si="102"/>
-        <v>869417.46632226859</v>
-      </c>
-      <c r="J168" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K168" s="14">
@@ -7712,43 +7712,43 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" ref="A169:B169" si="122">A168</f>
+        <f t="shared" ref="A169:B169" si="131">A168</f>
         <v>4</v>
       </c>
       <c r="B169" s="1">
+        <f t="shared" si="131"/>
+        <v>0.1</v>
+      </c>
+      <c r="C169" s="2">
+        <f t="shared" si="126"/>
+        <v>4.0468750000000012E-2</v>
+      </c>
+      <c r="D169" s="2">
+        <f t="shared" si="119"/>
+        <v>0.40468750000000009</v>
+      </c>
+      <c r="E169" s="9">
+        <f t="shared" si="120"/>
+        <v>4.6827486397305664</v>
+      </c>
+      <c r="F169" s="9">
+        <f t="shared" si="121"/>
+        <v>31.605111964671828</v>
+      </c>
+      <c r="G169" s="10">
         <f t="shared" si="122"/>
-        <v>0.1</v>
-      </c>
-      <c r="C169" s="2">
-        <f>C168+IF(K168&gt;0, (C168-C167)*IF(C168&gt;C167,1,1/2), -(C168-C167)*IF(C168&lt;C167,1,1/2))</f>
-        <v>4.0468750000000012E-2</v>
-      </c>
-      <c r="D169" s="2">
+        <v>0.82402881714518128</v>
+      </c>
+      <c r="H169" s="10">
+        <f t="shared" si="123"/>
+        <v>0.96932996270390004</v>
+      </c>
+      <c r="I169" s="7">
+        <f t="shared" si="110"/>
+        <v>867499.99264455633</v>
+      </c>
+      <c r="J169" s="6">
         <f t="shared" si="111"/>
-        <v>0.40468750000000009</v>
-      </c>
-      <c r="E169" s="9">
-        <f t="shared" si="112"/>
-        <v>4.6827486397305664</v>
-      </c>
-      <c r="F169" s="9">
-        <f t="shared" si="113"/>
-        <v>31.605111964671828</v>
-      </c>
-      <c r="G169" s="10">
-        <f t="shared" si="114"/>
-        <v>0.82402881714518128</v>
-      </c>
-      <c r="H169" s="10">
-        <f t="shared" si="115"/>
-        <v>0.96932996270390004</v>
-      </c>
-      <c r="I169" s="7">
-        <f t="shared" si="102"/>
-        <v>867499.99264455633</v>
-      </c>
-      <c r="J169" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K169" s="14">
@@ -7758,43 +7758,43 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" ref="A170:B170" si="123">A169</f>
+        <f t="shared" ref="A170:B170" si="132">A169</f>
         <v>4</v>
       </c>
       <c r="B170" s="1">
+        <f t="shared" si="132"/>
+        <v>0.1</v>
+      </c>
+      <c r="C170" s="2">
+        <f t="shared" si="126"/>
+        <v>4.0234375000000017E-2</v>
+      </c>
+      <c r="D170" s="2">
+        <f t="shared" si="119"/>
+        <v>0.40234375000000017</v>
+      </c>
+      <c r="E170" s="9">
+        <f t="shared" si="120"/>
+        <v>4.8687427066874616</v>
+      </c>
+      <c r="F170" s="9">
+        <f t="shared" si="121"/>
+        <v>32.379618466781189</v>
+      </c>
+      <c r="G170" s="10">
+        <f t="shared" si="122"/>
+        <v>0.82960575203603748</v>
+      </c>
+      <c r="H170" s="10">
         <f t="shared" si="123"/>
-        <v>0.1</v>
-      </c>
-      <c r="C170" s="2">
-        <f>C169+IF(K169&gt;0, (C169-C168)*IF(C169&gt;C168,1,1/2), -(C169-C168)*IF(C169&lt;C168,1,1/2))</f>
-        <v>4.0234375000000017E-2</v>
-      </c>
-      <c r="D170" s="2">
+        <v>0.97004159885784247</v>
+      </c>
+      <c r="I170" s="7">
+        <f t="shared" si="110"/>
+        <v>866689.07125383755</v>
+      </c>
+      <c r="J170" s="6">
         <f t="shared" si="111"/>
-        <v>0.40234375000000017</v>
-      </c>
-      <c r="E170" s="9">
-        <f t="shared" si="112"/>
-        <v>4.8687427066874616</v>
-      </c>
-      <c r="F170" s="9">
-        <f t="shared" si="113"/>
-        <v>32.379618466781189</v>
-      </c>
-      <c r="G170" s="10">
-        <f t="shared" si="114"/>
-        <v>0.82960575203603748</v>
-      </c>
-      <c r="H170" s="10">
-        <f t="shared" si="115"/>
-        <v>0.97004159885784247</v>
-      </c>
-      <c r="I170" s="7">
-        <f t="shared" si="102"/>
-        <v>866689.07125383755</v>
-      </c>
-      <c r="J170" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K170" s="14">
@@ -7804,43 +7804,43 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" ref="A171:B171" si="124">A170</f>
+        <f t="shared" ref="A171:B171" si="133">A170</f>
         <v>4</v>
       </c>
       <c r="B171" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="133"/>
         <v>0.1</v>
       </c>
       <c r="C171" s="2">
-        <f>C170+IF(K170&gt;0, (C170-C169)*IF(C170&gt;C169,1,1/2), -(C170-C169)*IF(C170&lt;C169,1,1/2))</f>
+        <f t="shared" si="126"/>
         <v>4.0117187500000019E-2</v>
       </c>
       <c r="D171" s="2">
+        <f t="shared" si="119"/>
+        <v>0.40117187500000018</v>
+      </c>
+      <c r="E171" s="9">
+        <f t="shared" si="120"/>
+        <v>4.9646295169629795</v>
+      </c>
+      <c r="F171" s="9">
+        <f t="shared" si="121"/>
+        <v>32.775622448870735</v>
+      </c>
+      <c r="G171" s="10">
+        <f t="shared" si="122"/>
+        <v>0.83234499357318481</v>
+      </c>
+      <c r="H171" s="10">
+        <f t="shared" si="123"/>
+        <v>0.97039284763696676</v>
+      </c>
+      <c r="I171" s="7">
+        <f t="shared" si="110"/>
+        <v>866322.11377503164</v>
+      </c>
+      <c r="J171" s="6">
         <f t="shared" si="111"/>
-        <v>0.40117187500000018</v>
-      </c>
-      <c r="E171" s="9">
-        <f t="shared" si="112"/>
-        <v>4.9646295169629795</v>
-      </c>
-      <c r="F171" s="9">
-        <f t="shared" si="113"/>
-        <v>32.775622448870735</v>
-      </c>
-      <c r="G171" s="10">
-        <f t="shared" si="114"/>
-        <v>0.83234499357318481</v>
-      </c>
-      <c r="H171" s="10">
-        <f t="shared" si="115"/>
-        <v>0.97039284763696676</v>
-      </c>
-      <c r="I171" s="7">
-        <f t="shared" si="102"/>
-        <v>866322.11377503164</v>
-      </c>
-      <c r="J171" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K171" s="14">
@@ -7850,43 +7850,43 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" ref="A172:B172" si="125">A171</f>
+        <f t="shared" ref="A172:B172" si="134">A171</f>
         <v>4</v>
       </c>
       <c r="B172" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="134"/>
         <v>0.1</v>
       </c>
       <c r="C172" s="2">
-        <f>C171+IF(K171&gt;0, (C171-C170)*IF(C171&gt;C170,1,1/2), -(C171-C170)*IF(C171&lt;C170,1,1/2))</f>
+        <f t="shared" si="126"/>
         <v>4.0058593750000024E-2</v>
       </c>
       <c r="D172" s="2">
+        <f t="shared" si="119"/>
+        <v>0.40058593750000021</v>
+      </c>
+      <c r="E172" s="9">
+        <f t="shared" si="120"/>
+        <v>5.0133140638006832</v>
+      </c>
+      <c r="F172" s="9">
+        <f t="shared" si="121"/>
+        <v>32.975857858566883</v>
+      </c>
+      <c r="G172" s="10">
+        <f t="shared" si="122"/>
+        <v>0.833702349587915</v>
+      </c>
+      <c r="H172" s="10">
+        <f t="shared" si="123"/>
+        <v>0.97056733624908742</v>
+      </c>
+      <c r="I172" s="7">
+        <f t="shared" si="110"/>
+        <v>866148.46207769471</v>
+      </c>
+      <c r="J172" s="6">
         <f t="shared" si="111"/>
-        <v>0.40058593750000021</v>
-      </c>
-      <c r="E172" s="9">
-        <f t="shared" si="112"/>
-        <v>5.0133140638006832</v>
-      </c>
-      <c r="F172" s="9">
-        <f t="shared" si="113"/>
-        <v>32.975857858566883</v>
-      </c>
-      <c r="G172" s="10">
-        <f t="shared" si="114"/>
-        <v>0.833702349587915</v>
-      </c>
-      <c r="H172" s="10">
-        <f t="shared" si="115"/>
-        <v>0.97056733624908742</v>
-      </c>
-      <c r="I172" s="7">
-        <f t="shared" si="102"/>
-        <v>866148.46207769471</v>
-      </c>
-      <c r="J172" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K172" s="14">
@@ -7896,43 +7896,43 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" ref="A173:B173" si="126">A172</f>
+        <f t="shared" ref="A173:B173" si="135">A172</f>
         <v>4</v>
       </c>
       <c r="B173" s="1">
+        <f t="shared" si="135"/>
+        <v>0.1</v>
+      </c>
+      <c r="C173" s="2">
         <f t="shared" si="126"/>
-        <v>0.1</v>
-      </c>
-      <c r="C173" s="2">
-        <f>C172+IF(K172&gt;0, (C172-C171)*IF(C172&gt;C171,1,1/2), -(C172-C171)*IF(C172&lt;C171,1,1/2))</f>
         <v>4.0029296875000023E-2</v>
       </c>
       <c r="D173" s="2">
+        <f t="shared" si="119"/>
+        <v>0.4002929687500002</v>
+      </c>
+      <c r="E173" s="9">
+        <f t="shared" si="120"/>
+        <v>5.0378440126840784</v>
+      </c>
+      <c r="F173" s="9">
+        <f t="shared" si="121"/>
+        <v>33.076539746527274</v>
+      </c>
+      <c r="G173" s="10">
+        <f t="shared" si="122"/>
+        <v>0.83437796705260403</v>
+      </c>
+      <c r="H173" s="10">
+        <f t="shared" si="123"/>
+        <v>0.97065429743048048</v>
+      </c>
+      <c r="I173" s="7">
+        <f t="shared" si="110"/>
+        <v>866064.11863472045</v>
+      </c>
+      <c r="J173" s="6">
         <f t="shared" si="111"/>
-        <v>0.4002929687500002</v>
-      </c>
-      <c r="E173" s="9">
-        <f t="shared" si="112"/>
-        <v>5.0378440126840784</v>
-      </c>
-      <c r="F173" s="9">
-        <f t="shared" si="113"/>
-        <v>33.076539746527274</v>
-      </c>
-      <c r="G173" s="10">
-        <f t="shared" si="114"/>
-        <v>0.83437796705260403</v>
-      </c>
-      <c r="H173" s="10">
-        <f t="shared" si="115"/>
-        <v>0.97065429743048048</v>
-      </c>
-      <c r="I173" s="7">
-        <f t="shared" si="102"/>
-        <v>866064.11863472045</v>
-      </c>
-      <c r="J173" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K173" s="14">
@@ -7942,43 +7942,43 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" ref="A174:B174" si="127">A173</f>
+        <f t="shared" ref="A174:B174" si="136">A173</f>
         <v>4</v>
       </c>
       <c r="B174" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="136"/>
         <v>0.1</v>
       </c>
       <c r="C174" s="2">
-        <f>C173+IF(K173&gt;0, (C173-C172)*IF(C173&gt;C172,1,1/2), -(C173-C172)*IF(C173&lt;C172,1,1/2))</f>
+        <f t="shared" si="126"/>
         <v>4.0014648437500022E-2</v>
       </c>
       <c r="D174" s="2">
+        <f t="shared" si="119"/>
+        <v>0.40014648437500022</v>
+      </c>
+      <c r="E174" s="9">
+        <f t="shared" si="120"/>
+        <v>5.0501562081176221</v>
+      </c>
+      <c r="F174" s="9">
+        <f t="shared" si="121"/>
+        <v>33.127022471935994</v>
+      </c>
+      <c r="G174" s="10">
+        <f t="shared" si="122"/>
+        <v>0.83471501138131299</v>
+      </c>
+      <c r="H174" s="10">
+        <f t="shared" si="123"/>
+        <v>0.97069770734255123</v>
+      </c>
+      <c r="I174" s="7">
+        <f t="shared" si="110"/>
+        <v>866022.57075151871</v>
+      </c>
+      <c r="J174" s="6">
         <f t="shared" si="111"/>
-        <v>0.40014648437500022</v>
-      </c>
-      <c r="E174" s="9">
-        <f t="shared" si="112"/>
-        <v>5.0501562081176221</v>
-      </c>
-      <c r="F174" s="9">
-        <f t="shared" si="113"/>
-        <v>33.127022471935994</v>
-      </c>
-      <c r="G174" s="10">
-        <f t="shared" si="114"/>
-        <v>0.83471501138131299</v>
-      </c>
-      <c r="H174" s="10">
-        <f t="shared" si="115"/>
-        <v>0.97069770734255123</v>
-      </c>
-      <c r="I174" s="7">
-        <f t="shared" si="102"/>
-        <v>866022.57075151871</v>
-      </c>
-      <c r="J174" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K174" s="14">
@@ -7988,43 +7988,43 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" ref="A175:B175" si="128">A174</f>
+        <f t="shared" ref="A175:B175" si="137">A174</f>
         <v>4</v>
       </c>
       <c r="B175" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="137"/>
         <v>0.1</v>
       </c>
       <c r="C175" s="2">
-        <f>C174+IF(K174&gt;0, (C174-C173)*IF(C174&gt;C173,1,1/2), -(C174-C173)*IF(C174&lt;C173,1,1/2))</f>
+        <f t="shared" si="126"/>
         <v>4.0007324218750022E-2</v>
       </c>
       <c r="D175" s="2">
+        <f t="shared" si="119"/>
+        <v>0.40007324218750018</v>
+      </c>
+      <c r="E175" s="9">
+        <f t="shared" si="120"/>
+        <v>5.0563241490608988</v>
+      </c>
+      <c r="F175" s="9">
+        <f t="shared" si="121"/>
+        <v>33.152299372401274</v>
+      </c>
+      <c r="G175" s="10">
+        <f t="shared" si="122"/>
+        <v>0.83488334253788887</v>
+      </c>
+      <c r="H175" s="10">
+        <f t="shared" si="123"/>
+        <v>0.97071939464175261</v>
+      </c>
+      <c r="I175" s="7">
+        <f t="shared" si="110"/>
+        <v>866001.95317606593</v>
+      </c>
+      <c r="J175" s="6">
         <f t="shared" si="111"/>
-        <v>0.40007324218750018</v>
-      </c>
-      <c r="E175" s="9">
-        <f t="shared" si="112"/>
-        <v>5.0563241490608988</v>
-      </c>
-      <c r="F175" s="9">
-        <f t="shared" si="113"/>
-        <v>33.152299372401274</v>
-      </c>
-      <c r="G175" s="10">
-        <f t="shared" si="114"/>
-        <v>0.83488334253788887</v>
-      </c>
-      <c r="H175" s="10">
-        <f t="shared" si="115"/>
-        <v>0.97071939464175261</v>
-      </c>
-      <c r="I175" s="7">
-        <f t="shared" si="102"/>
-        <v>866001.95317606593</v>
-      </c>
-      <c r="J175" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K175" s="14">
@@ -8034,43 +8034,43 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" ref="A176:B176" si="129">A175</f>
+        <f t="shared" ref="A176:B176" si="138">A175</f>
         <v>4</v>
       </c>
       <c r="B176" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="C176" s="2">
-        <f>C175+IF(K175&gt;0, (C175-C174)*IF(C175&gt;C174,1,1/2), -(C175-C174)*IF(C175&lt;C174,1,1/2))</f>
+        <f t="shared" si="126"/>
         <v>4.0003662109375018E-2</v>
       </c>
       <c r="D176" s="2">
+        <f t="shared" si="119"/>
+        <v>0.40003662109375016</v>
+      </c>
+      <c r="E176" s="9">
+        <f t="shared" si="120"/>
+        <v>5.0594110850998462</v>
+      </c>
+      <c r="F176" s="9">
+        <f t="shared" si="121"/>
+        <v>33.1649467186527</v>
+      </c>
+      <c r="G176" s="10">
+        <f t="shared" si="122"/>
+        <v>0.83496746037597447</v>
+      </c>
+      <c r="H176" s="10">
+        <f t="shared" si="123"/>
+        <v>0.97073023387874802</v>
+      </c>
+      <c r="I176" s="7">
+        <f t="shared" si="110"/>
+        <v>865991.68353082216</v>
+      </c>
+      <c r="J176" s="6">
         <f t="shared" si="111"/>
-        <v>0.40003662109375016</v>
-      </c>
-      <c r="E176" s="9">
-        <f t="shared" si="112"/>
-        <v>5.0594110850998462</v>
-      </c>
-      <c r="F176" s="9">
-        <f t="shared" si="113"/>
-        <v>33.1649467186527</v>
-      </c>
-      <c r="G176" s="10">
-        <f t="shared" si="114"/>
-        <v>0.83496746037597447</v>
-      </c>
-      <c r="H176" s="10">
-        <f t="shared" si="115"/>
-        <v>0.97073023387874802</v>
-      </c>
-      <c r="I176" s="7">
-        <f t="shared" si="102"/>
-        <v>865991.68353082216</v>
-      </c>
-      <c r="J176" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K176" s="14">
@@ -8080,43 +8080,43 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f t="shared" ref="A177:B177" si="130">A176</f>
+        <f t="shared" ref="A177:B177" si="139">A176</f>
         <v>4</v>
       </c>
       <c r="B177" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="139"/>
         <v>0.1</v>
       </c>
       <c r="C177" s="2">
-        <f>C176+IF(K176&gt;0, (C176-C175)*IF(C176&gt;C175,1,1/2), -(C176-C175)*IF(C176&lt;C175,1,1/2))</f>
+        <f t="shared" si="126"/>
         <v>4.000183105468752E-2</v>
       </c>
       <c r="D177" s="2">
+        <f t="shared" si="119"/>
+        <v>0.4000183105468752</v>
+      </c>
+      <c r="E177" s="9">
+        <f t="shared" si="120"/>
+        <v>5.0609552951070667</v>
+      </c>
+      <c r="F177" s="9">
+        <f t="shared" si="121"/>
+        <v>33.171272617232205</v>
+      </c>
+      <c r="G177" s="10">
+        <f t="shared" si="122"/>
+        <v>0.83500950736144064</v>
+      </c>
+      <c r="H177" s="10">
+        <f t="shared" si="123"/>
+        <v>0.97073565239429482</v>
+      </c>
+      <c r="I177" s="7">
+        <f t="shared" si="110"/>
+        <v>865986.55850019702</v>
+      </c>
+      <c r="J177" s="6">
         <f t="shared" si="111"/>
-        <v>0.4000183105468752</v>
-      </c>
-      <c r="E177" s="9">
-        <f t="shared" si="112"/>
-        <v>5.0609552951070667</v>
-      </c>
-      <c r="F177" s="9">
-        <f t="shared" si="113"/>
-        <v>33.171272617232205</v>
-      </c>
-      <c r="G177" s="10">
-        <f t="shared" si="114"/>
-        <v>0.83500950736144064</v>
-      </c>
-      <c r="H177" s="10">
-        <f t="shared" si="115"/>
-        <v>0.97073565239429482</v>
-      </c>
-      <c r="I177" s="7">
-        <f t="shared" si="102"/>
-        <v>865986.55850019702</v>
-      </c>
-      <c r="J177" s="6">
-        <f t="shared" si="103"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K177" s="14">
@@ -8129,7 +8129,7 @@
         <v>3</v>
       </c>
       <c r="B178" s="1">
-        <f t="shared" ref="B178" si="131">B177</f>
+        <f t="shared" ref="B178" si="140">B177</f>
         <v>0.1</v>
       </c>
       <c r="C178" s="2">
@@ -8156,11 +8156,11 @@
         <v>0.99897045091161429</v>
       </c>
       <c r="I178" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>4449315.6000000006</v>
       </c>
       <c r="J178" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
     </row>
@@ -8170,7 +8170,7 @@
         <v>3</v>
       </c>
       <c r="B179" s="1">
-        <f t="shared" ref="B179" si="132">B178</f>
+        <f t="shared" ref="B179" si="141">B178</f>
         <v>0.1</v>
       </c>
       <c r="C179" s="12">
@@ -8178,31 +8178,31 @@
         <v>0.04</v>
       </c>
       <c r="D179" s="2">
-        <f t="shared" ref="D179:D194" si="133">C179/B179</f>
+        <f t="shared" ref="D179:D194" si="142">C179/B179</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="E179" s="9">
-        <f t="shared" ref="E179:E194" si="134">POWER(1/D179-1,A179)</f>
+        <f t="shared" ref="E179:E194" si="143">POWER(1/D179-1,A179)</f>
         <v>3.375</v>
       </c>
       <c r="F179" s="9">
-        <f t="shared" ref="F179:F194" si="135">POWER((1/C179-1)*B179,A179)</f>
+        <f t="shared" ref="F179:F194" si="144">POWER((1/C179-1)*B179,A179)</f>
         <v>13.824000000000005</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" ref="G179:G194" si="136">E179/(E179+1)</f>
+        <f t="shared" ref="G179:G194" si="145">E179/(E179+1)</f>
         <v>0.77142857142857146</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" ref="H179:H194" si="137">F179/(F179+1)</f>
+        <f t="shared" ref="H179:H194" si="146">F179/(F179+1)</f>
         <v>0.93254182406907715</v>
       </c>
       <c r="I179" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>780825.59999999998</v>
       </c>
       <c r="J179" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K179" s="14">
@@ -8212,11 +8212,11 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f t="shared" ref="A180:B180" si="138">A179</f>
+        <f t="shared" ref="A180:B180" si="147">A179</f>
         <v>3</v>
       </c>
       <c r="B180" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="147"/>
         <v>0.1</v>
       </c>
       <c r="C180" s="12">
@@ -8224,31 +8224,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D180" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="E180" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>7.8717201166180653E-2</v>
       </c>
       <c r="F180" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>2.3450641399416909</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>7.297297297297288E-2</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.70105207010546844</v>
       </c>
       <c r="I180" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>1270318.2822157436</v>
       </c>
       <c r="J180" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K180" s="14">
@@ -8258,43 +8258,43 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f t="shared" ref="A181:B181" si="139">A180</f>
+        <f t="shared" ref="A181:B181" si="148">A180</f>
         <v>3</v>
       </c>
       <c r="B181" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="148"/>
         <v>0.1</v>
       </c>
       <c r="C181" s="2">
-        <f>C180+IF(K180&gt;0, (C180-C179)*IF(C180&gt;C179,1,1/2), -(C180-C179)*IF(C180&lt;C179,1,1/2))</f>
+        <f t="shared" ref="C181:C194" si="149">C180+IF(K180&gt;0, (C180-C179)*IF(C180&gt;C179,1,1/2), -(C180-C179)*IF(C180&lt;C179,1,1/2))</f>
         <v>5.5000000000000007E-2</v>
       </c>
       <c r="D181" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E181" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>0.54770848985725007</v>
       </c>
       <c r="F181" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>5.0723283245679927</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.35388349514563106</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.83531852255845473</v>
       </c>
       <c r="I181" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>1012318.2446280993</v>
       </c>
       <c r="J181" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K181" s="14">
@@ -8304,43 +8304,43 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f t="shared" ref="A182:B182" si="140">A181</f>
+        <f t="shared" ref="A182:B182" si="150">A181</f>
         <v>3</v>
       </c>
       <c r="B182" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>0.1</v>
       </c>
       <c r="C182" s="2">
-        <f>C181+IF(K181&gt;0, (C181-C180)*IF(C181&gt;C180,1,1/2), -(C181-C180)*IF(C181&lt;C180,1,1/2))</f>
+        <f t="shared" si="149"/>
         <v>4.7500000000000007E-2</v>
       </c>
       <c r="D182" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.47500000000000003</v>
       </c>
       <c r="E182" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>1.350196821694124</v>
       </c>
       <c r="F182" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>8.0633242455168368</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.57450372208436717</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.8896652074988215</v>
       </c>
       <c r="I182" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>890478.62668027414</v>
       </c>
       <c r="J182" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K182" s="14">
@@ -8350,43 +8350,43 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f t="shared" ref="A183:B183" si="141">A182</f>
+        <f t="shared" ref="A183:B183" si="151">A182</f>
         <v>3</v>
       </c>
       <c r="B183" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>0.1</v>
       </c>
       <c r="C183" s="2">
-        <f>C182+IF(K182&gt;0, (C182-C181)*IF(C182&gt;C181,1,1/2), -(C182-C181)*IF(C182&lt;C181,1,1/2))</f>
+        <f t="shared" si="149"/>
         <v>4.3750000000000011E-2</v>
       </c>
       <c r="D183" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.43750000000000011</v>
       </c>
       <c r="E183" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>2.1253644314868776</v>
       </c>
       <c r="F183" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>10.441915451895035</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.68003731343283558</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.91260204602941919</v>
       </c>
       <c r="I183" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>833444.4279883384</v>
       </c>
       <c r="J183" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K183" s="14">
@@ -8396,43 +8396,43 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f t="shared" ref="A184:B184" si="142">A183</f>
+        <f t="shared" ref="A184:B184" si="152">A183</f>
         <v>3</v>
       </c>
       <c r="B184" s="1">
+        <f t="shared" si="152"/>
+        <v>0.1</v>
+      </c>
+      <c r="C184" s="2">
+        <f t="shared" si="149"/>
+        <v>4.1875000000000009E-2</v>
+      </c>
+      <c r="D184" s="2">
         <f t="shared" si="142"/>
-        <v>0.1</v>
-      </c>
-      <c r="C184" s="2">
-        <f>C183+IF(K183&gt;0, (C183-C182)*IF(C183&gt;C182,1,1/2), -(C183-C182)*IF(C183&lt;C182,1,1/2))</f>
-        <v>4.1875000000000009E-2</v>
-      </c>
-      <c r="D184" s="2">
-        <f t="shared" si="133"/>
         <v>0.41875000000000007</v>
       </c>
       <c r="E184" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>2.6743881394985407</v>
       </c>
       <c r="F184" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>11.978489498375792</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.72784584479513526</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.92294943104703009</v>
       </c>
       <c r="I184" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>806455.35379285365</v>
       </c>
       <c r="J184" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K184" s="14">
@@ -8442,43 +8442,43 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f t="shared" ref="A185:B185" si="143">A184</f>
+        <f t="shared" ref="A185:B185" si="153">A184</f>
         <v>3</v>
       </c>
       <c r="B185" s="1">
+        <f t="shared" si="153"/>
+        <v>0.1</v>
+      </c>
+      <c r="C185" s="2">
+        <f t="shared" si="149"/>
+        <v>4.0937500000000009E-2</v>
+      </c>
+      <c r="D185" s="2">
+        <f t="shared" si="142"/>
+        <v>0.40937500000000004</v>
+      </c>
+      <c r="E185" s="9">
         <f t="shared" si="143"/>
-        <v>0.1</v>
-      </c>
-      <c r="C185" s="2">
-        <f>C184+IF(K184&gt;0, (C184-C183)*IF(C184&gt;C183,1,1/2), -(C184-C183)*IF(C184&lt;C183,1,1/2))</f>
-        <v>4.0937500000000009E-2</v>
-      </c>
-      <c r="D185" s="2">
-        <f t="shared" si="133"/>
-        <v>0.40937500000000004</v>
-      </c>
-      <c r="E185" s="9">
-        <f t="shared" si="134"/>
         <v>3.0031119736701024</v>
       </c>
       <c r="F185" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>12.858099386991</v>
       </c>
       <c r="G185" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.75019434715357525</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.9278400325993672</v>
       </c>
       <c r="I185" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>793450.6373027605</v>
       </c>
       <c r="J185" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K185" s="14">
@@ -8488,43 +8488,43 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f t="shared" ref="A186:B186" si="144">A185</f>
+        <f t="shared" ref="A186:B186" si="154">A185</f>
         <v>3</v>
       </c>
       <c r="B186" s="1">
+        <f t="shared" si="154"/>
+        <v>0.1</v>
+      </c>
+      <c r="C186" s="2">
+        <f t="shared" si="149"/>
+        <v>4.0468750000000012E-2</v>
+      </c>
+      <c r="D186" s="2">
+        <f t="shared" si="142"/>
+        <v>0.40468750000000009</v>
+      </c>
+      <c r="E186" s="9">
+        <f t="shared" si="143"/>
+        <v>3.1832858207092309</v>
+      </c>
+      <c r="F186" s="9">
         <f t="shared" si="144"/>
-        <v>0.1</v>
-      </c>
-      <c r="C186" s="2">
-        <f>C185+IF(K185&gt;0, (C185-C184)*IF(C185&gt;C184,1,1/2), -(C185-C184)*IF(C185&lt;C184,1,1/2))</f>
-        <v>4.0468750000000012E-2</v>
-      </c>
-      <c r="D186" s="2">
-        <f t="shared" si="133"/>
-        <v>0.40468750000000009</v>
-      </c>
-      <c r="E186" s="9">
-        <f t="shared" si="134"/>
-        <v>3.1832858207092309</v>
-      </c>
-      <c r="F186" s="9">
-        <f t="shared" si="135"/>
         <v>13.329627094691425</v>
       </c>
       <c r="G186" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.76095346030397204</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.93021451337205685</v>
       </c>
       <c r="I186" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>787087.85921664245</v>
       </c>
       <c r="J186" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K186" s="14">
@@ -8534,43 +8534,43 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f t="shared" ref="A187:B187" si="145">A186</f>
+        <f t="shared" ref="A187:B187" si="155">A186</f>
         <v>3</v>
       </c>
       <c r="B187" s="1">
+        <f t="shared" si="155"/>
+        <v>0.1</v>
+      </c>
+      <c r="C187" s="2">
+        <f t="shared" si="149"/>
+        <v>4.0234375000000017E-2</v>
+      </c>
+      <c r="D187" s="2">
+        <f t="shared" si="142"/>
+        <v>0.40234375000000017</v>
+      </c>
+      <c r="E187" s="9">
+        <f t="shared" si="143"/>
+        <v>3.2776503188811041</v>
+      </c>
+      <c r="F187" s="9">
+        <f t="shared" si="144"/>
+        <v>13.573873431332782</v>
+      </c>
+      <c r="G187" s="10">
         <f t="shared" si="145"/>
-        <v>0.1</v>
-      </c>
-      <c r="C187" s="2">
-        <f>C186+IF(K186&gt;0, (C186-C185)*IF(C186&gt;C185,1,1/2), -(C186-C185)*IF(C186&lt;C185,1,1/2))</f>
-        <v>4.0234375000000017E-2</v>
-      </c>
-      <c r="D187" s="2">
-        <f t="shared" si="133"/>
-        <v>0.40234375000000017</v>
-      </c>
-      <c r="E187" s="9">
-        <f t="shared" si="134"/>
-        <v>3.2776503188811041</v>
-      </c>
-      <c r="F187" s="9">
-        <f t="shared" si="135"/>
-        <v>13.573873431332782</v>
-      </c>
-      <c r="G187" s="10">
-        <f t="shared" si="136"/>
         <v>0.76622680082425065</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.93138406171072741</v>
       </c>
       <c r="I187" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>783943.7930978646</v>
       </c>
       <c r="J187" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K187" s="14">
@@ -8580,43 +8580,43 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f t="shared" ref="A188:B188" si="146">A187</f>
+        <f t="shared" ref="A188:B188" si="156">A187</f>
         <v>3</v>
       </c>
       <c r="B188" s="1">
+        <f t="shared" si="156"/>
+        <v>0.1</v>
+      </c>
+      <c r="C188" s="2">
+        <f t="shared" si="149"/>
+        <v>4.0117187500000019E-2</v>
+      </c>
+      <c r="D188" s="2">
+        <f t="shared" si="142"/>
+        <v>0.40117187500000018</v>
+      </c>
+      <c r="E188" s="9">
+        <f t="shared" si="143"/>
+        <v>3.3259455407181897</v>
+      </c>
+      <c r="F188" s="9">
+        <f t="shared" si="144"/>
+        <v>13.69819080087505</v>
+      </c>
+      <c r="G188" s="10">
+        <f t="shared" si="145"/>
+        <v>0.76883666458871314</v>
+      </c>
+      <c r="H188" s="10">
         <f t="shared" si="146"/>
-        <v>0.1</v>
-      </c>
-      <c r="C188" s="2">
-        <f>C187+IF(K187&gt;0, (C187-C186)*IF(C187&gt;C186,1,1/2), -(C187-C186)*IF(C187&lt;C186,1,1/2))</f>
-        <v>4.0117187500000019E-2</v>
-      </c>
-      <c r="D188" s="2">
-        <f t="shared" si="133"/>
-        <v>0.40117187500000018</v>
-      </c>
-      <c r="E188" s="9">
-        <f t="shared" si="134"/>
-        <v>3.3259455407181897</v>
-      </c>
-      <c r="F188" s="9">
-        <f t="shared" si="135"/>
-        <v>13.69819080087505</v>
-      </c>
-      <c r="G188" s="10">
-        <f t="shared" si="136"/>
-        <v>0.76883666458871314</v>
-      </c>
-      <c r="H188" s="10">
-        <f t="shared" si="137"/>
         <v>0.93196441565172328</v>
       </c>
       <c r="I188" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>782381.41452385054</v>
       </c>
       <c r="J188" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K188" s="14">
@@ -8626,43 +8626,43 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f t="shared" ref="A189:B189" si="147">A188</f>
+        <f t="shared" ref="A189:B189" si="157">A188</f>
         <v>3</v>
       </c>
       <c r="B189" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>0.1</v>
       </c>
       <c r="C189" s="2">
-        <f>C188+IF(K188&gt;0, (C188-C187)*IF(C188&gt;C187,1,1/2), -(C188-C187)*IF(C188&lt;C187,1,1/2))</f>
+        <f t="shared" si="149"/>
         <v>4.0058593750000024E-2</v>
       </c>
       <c r="D189" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.40058593750000021</v>
       </c>
       <c r="E189" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>3.3503770429635744</v>
       </c>
       <c r="F189" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>13.760907539913472</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.77013486644394913</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.93225348798534224</v>
       </c>
       <c r="I189" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>781602.68067561975</v>
       </c>
       <c r="J189" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K189" s="14">
@@ -8672,43 +8672,43 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" ref="A190:B190" si="148">A189</f>
+        <f t="shared" ref="A190:B190" si="158">A189</f>
         <v>3</v>
       </c>
       <c r="B190" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>0.1</v>
       </c>
       <c r="C190" s="2">
-        <f>C189+IF(K189&gt;0, (C189-C188)*IF(C189&gt;C188,1,1/2), -(C189-C188)*IF(C189&lt;C188,1,1/2))</f>
+        <f t="shared" si="149"/>
         <v>4.0029296875000023E-2</v>
       </c>
       <c r="D190" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.4002929687500002</v>
       </c>
       <c r="E190" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>3.3626644859130526</v>
       </c>
       <c r="F190" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>13.792406630758114</v>
       </c>
       <c r="G190" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.77078228150961914</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.93239774804995679</v>
       </c>
       <c r="I190" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>781213.93292533618</v>
       </c>
       <c r="J190" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K190" s="14">
@@ -8718,43 +8718,43 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" ref="A191:B191" si="149">A190</f>
+        <f t="shared" ref="A191:B191" si="159">A190</f>
         <v>3</v>
       </c>
       <c r="B191" s="1">
+        <f t="shared" si="159"/>
+        <v>0.1</v>
+      </c>
+      <c r="C191" s="2">
         <f t="shared" si="149"/>
-        <v>0.1</v>
-      </c>
-      <c r="C191" s="2">
-        <f>C190+IF(K190&gt;0, (C190-C189)*IF(C190&gt;C189,1,1/2), -(C190-C189)*IF(C190&lt;C189,1,1/2))</f>
         <v>4.0014648437500022E-2</v>
       </c>
       <c r="D191" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.40014648437500022</v>
       </c>
       <c r="E191" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>3.3688262210438706</v>
       </c>
       <c r="F191" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>13.808191508736584</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.77110556716969536</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.93246980906412391</v>
       </c>
       <c r="I191" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>781019.71451344131</v>
       </c>
       <c r="J191" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K191" s="14">
@@ -8764,43 +8764,43 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" ref="A192:B207" si="150">A191</f>
+        <f t="shared" ref="A192:B207" si="160">A191</f>
         <v>3</v>
       </c>
       <c r="B192" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C192" s="2">
-        <f>C191+IF(K191&gt;0, (C191-C190)*IF(C191&gt;C190,1,1/2), -(C191-C190)*IF(C191&lt;C190,1,1/2))</f>
+        <f t="shared" si="149"/>
         <v>4.0007324218750022E-2</v>
       </c>
       <c r="D192" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.40007324218750018</v>
       </c>
       <c r="E192" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>3.3719116034127294</v>
       </c>
       <c r="F192" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>13.816092799972022</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.77126710448139058</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.93250582231761614</v>
       </c>
       <c r="I192" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>780922.64425737725</v>
       </c>
       <c r="J192" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K192" s="14">
@@ -8810,43 +8810,43 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f t="shared" ref="A193" si="151">A192</f>
+        <f t="shared" ref="A193" si="161">A192</f>
         <v>3</v>
       </c>
       <c r="B193" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C193" s="2">
-        <f>C192+IF(K192&gt;0, (C192-C191)*IF(C192&gt;C191,1,1/2), -(C192-C191)*IF(C192&lt;C191,1,1/2))</f>
+        <f t="shared" si="149"/>
         <v>4.0003662109375018E-2</v>
       </c>
       <c r="D193" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.40003662109375016</v>
       </c>
       <c r="E193" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>3.3734554247249622</v>
       </c>
       <c r="F193" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>13.820045661044649</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.77134784675143031</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.93252382463108341</v>
       </c>
       <c r="I193" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>780874.11887734686</v>
       </c>
       <c r="J193" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K193" s="14">
@@ -8856,43 +8856,43 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" ref="A194" si="152">A193</f>
+        <f t="shared" ref="A194" si="162">A193</f>
         <v>3</v>
       </c>
       <c r="B194" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C194" s="2">
-        <f>C193+IF(K193&gt;0, (C193-C192)*IF(C193&gt;C192,1,1/2), -(C193-C192)*IF(C193&lt;C192,1,1/2))</f>
+        <f t="shared" si="149"/>
         <v>4.000183105468752E-2</v>
       </c>
       <c r="D194" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.4000183105468752</v>
       </c>
       <c r="E194" s="9">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>3.3742276180916</v>
       </c>
       <c r="F194" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>13.822022645744173</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>0.77138821128922341</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>0.93253282470951238</v>
       </c>
       <c r="I194" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>780849.85862564971</v>
       </c>
       <c r="J194" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K194" s="14">
@@ -8905,7 +8905,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C195" s="2">
@@ -8932,11 +8932,11 @@
         <v>0.98990001009998985</v>
       </c>
       <c r="I195" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>611244</v>
       </c>
       <c r="J195" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
     </row>
@@ -8946,7 +8946,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C196" s="12">
@@ -8954,31 +8954,31 @@
         <v>0.04</v>
       </c>
       <c r="D196" s="2">
-        <f t="shared" ref="D196:D211" si="153">C196/B196</f>
+        <f t="shared" ref="D196:D211" si="163">C196/B196</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="E196" s="9">
-        <f t="shared" ref="E196:E211" si="154">POWER(1/D196-1,A196)</f>
+        <f t="shared" ref="E196:E211" si="164">POWER(1/D196-1,A196)</f>
         <v>2.25</v>
       </c>
       <c r="F196" s="9">
-        <f t="shared" ref="F196:F211" si="155">POWER((1/C196-1)*B196,A196)</f>
+        <f t="shared" ref="F196:F211" si="165">POWER((1/C196-1)*B196,A196)</f>
         <v>5.7600000000000016</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" ref="G196:G211" si="156">E196/(E196+1)</f>
+        <f t="shared" ref="G196:G211" si="166">E196/(E196+1)</f>
         <v>0.69230769230769229</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" ref="H196:H211" si="157">F196/(F196+1)</f>
+        <f t="shared" ref="H196:H211" si="167">F196/(F196+1)</f>
         <v>0.85207100591715978</v>
       </c>
       <c r="I196" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>745344</v>
       </c>
       <c r="J196" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K196" s="14">
@@ -8988,11 +8988,11 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f t="shared" ref="A197" si="158">A196</f>
+        <f t="shared" ref="A197" si="168">A196</f>
         <v>2</v>
       </c>
       <c r="B197" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C197" s="12">
@@ -9000,31 +9000,31 @@
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="D197" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="E197" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>80.999999999999972</v>
       </c>
       <c r="F197" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>98.009999999999977</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.98780487804878048</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.98990001009998985</v>
       </c>
       <c r="I197" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>611243.99999999988</v>
       </c>
       <c r="J197" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K197" s="14">
@@ -9034,43 +9034,43 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
-        <f t="shared" ref="A198" si="159">A197</f>
+        <f t="shared" ref="A198" si="169">A197</f>
         <v>2</v>
       </c>
       <c r="B198" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C198" s="2">
-        <f>C197+IF(K197&gt;0, (C197-C196)*IF(C197&gt;C196,1,1/2), -(C197-C196)*IF(C197&lt;C196,1,1/2))</f>
+        <f t="shared" ref="C198:C211" si="170">C197+IF(K197&gt;0, (C197-C196)*IF(C197&gt;C196,1,1/2), -(C197-C196)*IF(C197&lt;C196,1,1/2))</f>
         <v>-4.9999999999999975E-3</v>
       </c>
       <c r="D198" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>-4.9999999999999975E-2</v>
       </c>
       <c r="E198" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>441.00000000000045</v>
       </c>
       <c r="F198" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>404.0100000000005</v>
       </c>
       <c r="G198" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.99773755656108598</v>
       </c>
       <c r="H198" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.99753092516234165</v>
       </c>
       <c r="I198" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>1850400.0000000021</v>
       </c>
       <c r="J198" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K198" s="14">
@@ -9080,43 +9080,43 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
-        <f t="shared" ref="A199" si="160">A198</f>
+        <f t="shared" ref="A199" si="171">A198</f>
         <v>2</v>
       </c>
       <c r="B199" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C199" s="2">
-        <f>C198+IF(K198&gt;0, (C198-C197)*IF(C198&gt;C197,1,1/2), -(C198-C197)*IF(C198&lt;C197,1,1/2))</f>
+        <f t="shared" si="170"/>
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="D199" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="E199" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>80.999999999999972</v>
       </c>
       <c r="F199" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>98.009999999999977</v>
       </c>
       <c r="G199" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.98780487804878048</v>
       </c>
       <c r="H199" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.98990001009998985</v>
       </c>
       <c r="I199" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>611243.99999999988</v>
       </c>
       <c r="J199" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K199" s="14">
@@ -9126,43 +9126,43 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
-        <f t="shared" ref="A200" si="161">A199</f>
+        <f t="shared" ref="A200" si="172">A199</f>
         <v>2</v>
       </c>
       <c r="B200" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C200" s="2">
-        <f>C199+IF(K199&gt;0, (C199-C198)*IF(C199&gt;C198,1,1/2), -(C199-C198)*IF(C199&lt;C198,1,1/2))</f>
+        <f t="shared" si="170"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D200" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.25</v>
       </c>
       <c r="E200" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>9</v>
       </c>
       <c r="F200" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>15.210000000000003</v>
       </c>
       <c r="G200" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.9</v>
       </c>
       <c r="H200" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.93830968537939552</v>
       </c>
       <c r="I200" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>516924</v>
       </c>
       <c r="J200" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K200" s="14">
@@ -9172,43 +9172,43 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
-        <f t="shared" ref="A201" si="162">A200</f>
+        <f t="shared" ref="A201" si="173">A200</f>
         <v>2</v>
       </c>
       <c r="B201" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C201" s="2">
-        <f>C200+IF(K200&gt;0, (C200-C199)*IF(C200&gt;C199,1,1/2), -(C200-C199)*IF(C200&lt;C199,1,1/2))</f>
+        <f t="shared" si="170"/>
         <v>0.04</v>
       </c>
       <c r="D201" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="E201" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>2.25</v>
       </c>
       <c r="F201" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>5.7600000000000016</v>
       </c>
       <c r="G201" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="H201" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.85207100591715978</v>
       </c>
       <c r="I201" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>745344</v>
       </c>
       <c r="J201" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K201" s="14">
@@ -9218,43 +9218,43 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
-        <f t="shared" ref="A202" si="163">A201</f>
+        <f t="shared" ref="A202" si="174">A201</f>
         <v>2</v>
       </c>
       <c r="B202" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C202" s="2">
-        <f>C201+IF(K201&gt;0, (C201-C200)*IF(C201&gt;C200,1,1/2), -(C201-C200)*IF(C201&lt;C200,1,1/2))</f>
+        <f t="shared" si="170"/>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="D202" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="E202" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>4.3136094674556205</v>
       </c>
       <c r="F202" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>8.8620710059171603</v>
       </c>
       <c r="G202" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.81180400890868598</v>
       </c>
       <c r="H202" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.89860141958012585</v>
       </c>
       <c r="I202" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>623993.11242603546</v>
       </c>
       <c r="J202" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K202" s="14">
@@ -9264,43 +9264,43 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
-        <f t="shared" ref="A203" si="164">A202</f>
+        <f t="shared" ref="A203" si="175">A202</f>
         <v>2</v>
       </c>
       <c r="B203" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C203" s="2">
-        <f>C202+IF(K202&gt;0, (C202-C201)*IF(C202&gt;C201,1,1/2), -(C202-C201)*IF(C202&lt;C201,1,1/2))</f>
+        <f t="shared" si="170"/>
         <v>2.8750000000000001E-2</v>
       </c>
       <c r="D203" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.28749999999999998</v>
       </c>
       <c r="E203" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>6.1417769376181495</v>
       </c>
       <c r="F203" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>11.412646502835537</v>
       </c>
       <c r="G203" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.85997882477501331</v>
       </c>
       <c r="H203" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.91943700323927213</v>
       </c>
       <c r="I203" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>567715.64461247635</v>
       </c>
       <c r="J203" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K203" s="14">
@@ -9310,43 +9310,43 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
-        <f t="shared" ref="A204" si="165">A203</f>
+        <f t="shared" ref="A204" si="176">A203</f>
         <v>2</v>
       </c>
       <c r="B204" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C204" s="2">
-        <f>C203+IF(K203&gt;0, (C203-C202)*IF(C203&gt;C202,1,1/2), -(C203-C202)*IF(C203&lt;C202,1,1/2))</f>
+        <f t="shared" si="170"/>
         <v>2.6875000000000003E-2</v>
       </c>
       <c r="D204" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.26874999999999999</v>
       </c>
       <c r="E204" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>7.4034613304488914</v>
       </c>
       <c r="F204" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>13.111135749053542</v>
       </c>
       <c r="G204" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.88100141588364012</v>
       </c>
       <c r="H204" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.92913398199949482</v>
       </c>
       <c r="I204" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>541438.99729583564</v>
       </c>
       <c r="J204" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K204" s="14">
@@ -9356,43 +9356,43 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
-        <f t="shared" ref="A205" si="166">A204</f>
+        <f t="shared" ref="A205" si="177">A204</f>
         <v>2</v>
       </c>
       <c r="B205" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C205" s="2">
-        <f>C204+IF(K204&gt;0, (C204-C203)*IF(C204&gt;C203,1,1/2), -(C204-C203)*IF(C204&lt;C203,1,1/2))</f>
+        <f t="shared" si="170"/>
         <v>2.5937500000000002E-2</v>
       </c>
       <c r="D205" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.25937500000000002</v>
       </c>
       <c r="E205" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>8.1534330091450116</v>
       </c>
       <c r="F205" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>14.103192045289591</v>
       </c>
       <c r="G205" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.89075137175298924</v>
       </c>
       <c r="H205" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.93378883106290889</v>
       </c>
       <c r="I205" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>528929.04499927431</v>
       </c>
       <c r="J205" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K205" s="14">
@@ -9402,43 +9402,43 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
-        <f t="shared" ref="A206" si="167">A205</f>
+        <f t="shared" ref="A206" si="178">A205</f>
         <v>2</v>
       </c>
       <c r="B206" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C206" s="2">
-        <f>C205+IF(K205&gt;0, (C205-C204)*IF(C205&gt;C204,1,1/2), -(C205-C204)*IF(C205&lt;C204,1,1/2))</f>
+        <f t="shared" si="170"/>
         <v>2.5468750000000002E-2</v>
       </c>
       <c r="D206" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.25468750000000001</v>
       </c>
       <c r="E206" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>8.5637020587903194</v>
       </c>
       <c r="F206" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>14.64118672136701</v>
       </c>
       <c r="G206" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.89543798062164992</v>
       </c>
       <c r="H206" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.93606623219746321</v>
       </c>
       <c r="I206" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>522858.72157401493</v>
       </c>
       <c r="J206" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K206" s="14">
@@ -9448,43 +9448,43 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
-        <f t="shared" ref="A207" si="168">A206</f>
+        <f t="shared" ref="A207" si="179">A206</f>
         <v>2</v>
       </c>
       <c r="B207" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="C207" s="2">
-        <f>C206+IF(K206&gt;0, (C206-C205)*IF(C206&gt;C205,1,1/2), -(C206-C205)*IF(C206&lt;C205,1,1/2))</f>
+        <f t="shared" si="170"/>
         <v>2.5234375000000003E-2</v>
       </c>
       <c r="D207" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.25234375000000003</v>
       </c>
       <c r="E207" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>8.7784700323016587</v>
       </c>
       <c r="F207" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>14.921596967286181</v>
       </c>
       <c r="G207" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.89773451299675155</v>
       </c>
       <c r="H207" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.93719223002223451</v>
       </c>
       <c r="I207" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>519873.77665605926</v>
       </c>
       <c r="J207" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K207" s="14">
@@ -9494,43 +9494,43 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
-        <f t="shared" ref="A208" si="169">A207</f>
+        <f t="shared" ref="A208" si="180">A207</f>
         <v>2</v>
       </c>
       <c r="B208" s="1">
-        <f t="shared" ref="B208:B228" si="170">B207</f>
+        <f t="shared" ref="B208:B228" si="181">B207</f>
         <v>0.1</v>
       </c>
       <c r="C208" s="2">
-        <f>C207+IF(K207&gt;0, (C207-C206)*IF(C207&gt;C206,1,1/2), -(C207-C206)*IF(C207&lt;C206,1,1/2))</f>
+        <f t="shared" si="170"/>
         <v>2.5117187500000006E-2</v>
       </c>
       <c r="D208" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.25117187500000004</v>
       </c>
       <c r="E208" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>8.888373172991102</v>
       </c>
       <c r="F208" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>15.064780637998876</v>
       </c>
       <c r="G208" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.89887113051807355</v>
       </c>
       <c r="H208" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.93775202895490228</v>
       </c>
       <c r="I208" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>518394.40980719519</v>
       </c>
       <c r="J208" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K208" s="14">
@@ -9540,43 +9540,43 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
-        <f t="shared" ref="A209" si="171">A208</f>
+        <f t="shared" ref="A209" si="182">A208</f>
         <v>2</v>
       </c>
       <c r="B209" s="1">
+        <f t="shared" si="181"/>
+        <v>0.1</v>
+      </c>
+      <c r="C209" s="2">
         <f t="shared" si="170"/>
-        <v>0.1</v>
-      </c>
-      <c r="C209" s="2">
-        <f>C208+IF(K208&gt;0, (C208-C207)*IF(C208&gt;C207,1,1/2), -(C208-C207)*IF(C208&lt;C207,1,1/2))</f>
         <v>2.5058593750000007E-2</v>
       </c>
       <c r="D209" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.25058593750000008</v>
       </c>
       <c r="E209" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>8.9439690077510914</v>
       </c>
       <c r="F209" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>15.137133466051953</v>
       </c>
       <c r="G209" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.89943653291552661</v>
       </c>
       <c r="H209" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.93803112540999167</v>
       </c>
       <c r="I209" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>517658.07475062873</v>
       </c>
       <c r="J209" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K209" s="14">
@@ -9586,43 +9586,43 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
-        <f t="shared" ref="A210" si="172">A209</f>
+        <f t="shared" ref="A210" si="183">A209</f>
         <v>2</v>
       </c>
       <c r="B210" s="1">
+        <f t="shared" si="181"/>
+        <v>0.1</v>
+      </c>
+      <c r="C210" s="2">
         <f t="shared" si="170"/>
-        <v>0.1</v>
-      </c>
-      <c r="C210" s="2">
-        <f>C209+IF(K209&gt;0, (C209-C208)*IF(C209&gt;C208,1,1/2), -(C209-C208)*IF(C209&lt;C208,1,1/2))</f>
         <v>2.5029296875000009E-2</v>
       </c>
       <c r="D210" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.25029296875000007</v>
       </c>
       <c r="E210" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>8.9719298416539885</v>
       </c>
       <c r="F210" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>15.173502217775715</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.89971850826478184</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.93817047250898233</v>
       </c>
       <c r="I210" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>517290.75350821333</v>
       </c>
       <c r="J210" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K210" s="14">
@@ -9632,43 +9632,43 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
-        <f t="shared" ref="A211" si="173">A210</f>
+        <f t="shared" ref="A211" si="184">A210</f>
         <v>2</v>
       </c>
       <c r="B211" s="1">
+        <f t="shared" si="181"/>
+        <v>0.1</v>
+      </c>
+      <c r="C211" s="2">
         <f t="shared" si="170"/>
-        <v>0.1</v>
-      </c>
-      <c r="C211" s="2">
-        <f>C210+IF(K210&gt;0, (C210-C209)*IF(C210&gt;C209,1,1/2), -(C210-C209)*IF(C210&lt;C209,1,1/2))</f>
         <v>2.5014648437500009E-2</v>
       </c>
       <c r="D211" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.25014648437500009</v>
       </c>
       <c r="E211" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>8.9859512216533517</v>
       </c>
       <c r="F211" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>15.191734942129631</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0.89985931457069224</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.93824009572945277</v>
       </c>
       <c r="I211" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>517107.30562037055</v>
       </c>
       <c r="J211" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K211" s="14">
@@ -9681,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="B212" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C212" s="2">
@@ -9708,11 +9708,11 @@
         <v>0.99008919722497524</v>
       </c>
       <c r="I212" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>457560</v>
       </c>
       <c r="J212" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
     </row>
@@ -9722,7 +9722,7 @@
         <v>1</v>
       </c>
       <c r="B213" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C213" s="12">
@@ -9730,31 +9730,31 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D213" s="2">
-        <f t="shared" ref="D213:D228" si="174">C213/B213</f>
+        <f t="shared" ref="D213:D228" si="185">C213/B213</f>
         <v>0.04</v>
       </c>
       <c r="E213" s="9">
-        <f t="shared" ref="E213:E228" si="175">POWER(1/D213-1,A213)</f>
+        <f t="shared" ref="E213:E228" si="186">POWER(1/D213-1,A213)</f>
         <v>24</v>
       </c>
       <c r="F213" s="9">
-        <f t="shared" ref="F213:F228" si="176">POWER((1/C213-1)*B213,A213)</f>
+        <f t="shared" ref="F213:F228" si="187">POWER((1/C213-1)*B213,A213)</f>
         <v>24.900000000000002</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" ref="G213:G228" si="177">E213/(E213+1)</f>
+        <f t="shared" ref="G213:G228" si="188">E213/(E213+1)</f>
         <v>0.96</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" ref="H213:H228" si="178">F213/(F213+1)</f>
+        <f t="shared" ref="H213:H228" si="189">F213/(F213+1)</f>
         <v>0.96138996138996136</v>
       </c>
       <c r="I213" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>181560</v>
       </c>
       <c r="J213" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K213" s="14">
@@ -9764,43 +9764,43 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
-        <f t="shared" ref="A214" si="179">A213</f>
+        <f t="shared" ref="A214" si="190">A213</f>
         <v>1</v>
       </c>
       <c r="B214" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C214" s="2">
-        <f>C213+IF(K213&gt;0, (C213-C212)*IF(C213&gt;C212,1,1/2), -(C213-C212)*IF(C213&lt;C212,1,1/2))</f>
+        <f t="shared" ref="C214:C228" si="191">C213+IF(K213&gt;0, (C213-C212)*IF(C213&gt;C212,1,1/2), -(C213-C212)*IF(C213&lt;C212,1,1/2))</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D214" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="E214" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>13.285714285714286</v>
       </c>
       <c r="F214" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>14.185714285714287</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.93</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.93414863593603015</v>
       </c>
       <c r="I214" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>188417.14285714287</v>
       </c>
       <c r="J214" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K214" s="14">
@@ -9810,43 +9810,43 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
-        <f t="shared" ref="A215" si="180">A214</f>
+        <f t="shared" ref="A215" si="192">A214</f>
         <v>1</v>
       </c>
       <c r="B215" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C215" s="2">
-        <f>C214+IF(K214&gt;0, (C214-C213)*IF(C214&gt;C213,1,1/2), -(C214-C213)*IF(C214&lt;C213,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="D215" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.4999999999999993E-2</v>
       </c>
       <c r="E215" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>17.181818181818183</v>
       </c>
       <c r="F215" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>18.081818181818186</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.94759409242496428</v>
       </c>
       <c r="I215" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>178560</v>
       </c>
       <c r="J215" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K215" s="14">
@@ -9856,43 +9856,43 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
-        <f t="shared" ref="A216" si="181">A215</f>
+        <f t="shared" ref="A216" si="193">A215</f>
         <v>1</v>
       </c>
       <c r="B216" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C216" s="2">
-        <f>C215+IF(K215&gt;0, (C215-C214)*IF(C215&gt;C214,1,1/2), -(C215-C214)*IF(C215&lt;C214,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>4.749999999999999E-3</v>
       </c>
       <c r="D216" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>4.7499999999999987E-2</v>
       </c>
       <c r="E216" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>20.052631578947373</v>
       </c>
       <c r="F216" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>20.952631578947376</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.95250000000000001</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.95444737473028052</v>
       </c>
       <c r="I216" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>177691.57894736843</v>
       </c>
       <c r="J216" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K216" s="14">
@@ -9902,43 +9902,43 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
-        <f t="shared" ref="A217" si="182">A216</f>
+        <f t="shared" ref="A217" si="194">A216</f>
         <v>1</v>
       </c>
       <c r="B217" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C217" s="2">
-        <f>C216+IF(K216&gt;0, (C216-C215)*IF(C216&gt;C215,1,1/2), -(C216-C215)*IF(C216&lt;C215,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>4.3749999999999987E-3</v>
       </c>
       <c r="D217" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>4.3749999999999983E-2</v>
       </c>
       <c r="E217" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>21.857142857142865</v>
       </c>
       <c r="F217" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>22.757142857142867</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.95625000000000004</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.957907396271798</v>
       </c>
       <c r="I217" s="7">
-        <f t="shared" ref="I217:I228" si="183">MAX(E217,F217)*$D$21+C217*$D$20</f>
+        <f t="shared" ref="I217:I228" si="195">MAX(E217,F217)*$D$21+C217*$D$20</f>
         <v>178881.42857142858</v>
       </c>
       <c r="J217" s="6">
-        <f t="shared" ref="J217:J228" si="184">2*SQRT($D$20*B217*$D$21)</f>
+        <f t="shared" ref="J217:J228" si="196">2*SQRT($D$20*B217*$D$21)</f>
         <v>177988.76369029592</v>
       </c>
       <c r="K217" s="14">
@@ -9948,43 +9948,43 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
-        <f t="shared" ref="A218" si="185">A217</f>
+        <f t="shared" ref="A218" si="197">A217</f>
         <v>1</v>
       </c>
       <c r="B218" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C218" s="2">
-        <f>C217+IF(K217&gt;0, (C217-C216)*IF(C217&gt;C216,1,1/2), -(C217-C216)*IF(C217&lt;C216,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>4.749999999999999E-3</v>
       </c>
       <c r="D218" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>4.7499999999999987E-2</v>
       </c>
       <c r="E218" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>20.052631578947373</v>
       </c>
       <c r="F218" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>20.952631578947376</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.95250000000000001</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.95444737473028052</v>
       </c>
       <c r="I218" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>177691.57894736843</v>
       </c>
       <c r="J218" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K218" s="14">
@@ -9994,43 +9994,43 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
-        <f t="shared" ref="A219" si="186">A218</f>
+        <f t="shared" ref="A219" si="198">A218</f>
         <v>1</v>
       </c>
       <c r="B219" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C219" s="2">
-        <f>C218+IF(K218&gt;0, (C218-C217)*IF(C218&gt;C217,1,1/2), -(C218-C217)*IF(C218&lt;C217,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.1249999999999993E-3</v>
       </c>
       <c r="D219" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.124999999999999E-2</v>
       </c>
       <c r="E219" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>18.512195121951223</v>
       </c>
       <c r="F219" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>19.412195121951225</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.94874999999999998</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.95100967857569607</v>
       </c>
       <c r="I219" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>177663.65853658537</v>
       </c>
       <c r="J219" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K219" s="14">
@@ -10040,43 +10040,43 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
-        <f t="shared" ref="A220" si="187">A219</f>
+        <f t="shared" ref="A220" si="199">A219</f>
         <v>1</v>
       </c>
       <c r="B220" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C220" s="2">
-        <f>C219+IF(K219&gt;0, (C219-C218)*IF(C219&gt;C218,1,1/2), -(C219-C218)*IF(C219&lt;C218,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="D220" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.4999999999999993E-2</v>
       </c>
       <c r="E220" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>17.181818181818183</v>
       </c>
       <c r="F220" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>18.081818181818186</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.94759409242496428</v>
       </c>
       <c r="I220" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>178560</v>
       </c>
       <c r="J220" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K220" s="14">
@@ -10086,43 +10086,43 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f t="shared" ref="A221" si="188">A220</f>
+        <f t="shared" ref="A221" si="200">A220</f>
         <v>1</v>
       </c>
       <c r="B221" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C221" s="2">
-        <f>C220+IF(K220&gt;0, (C220-C219)*IF(C220&gt;C219,1,1/2), -(C220-C219)*IF(C220&lt;C219,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.3124999999999995E-3</v>
       </c>
       <c r="D221" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.3124999999999992E-2</v>
       </c>
       <c r="E221" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>17.82352941176471</v>
       </c>
       <c r="F221" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>18.723529411764709</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.94687500000000002</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.94929913510289299</v>
       </c>
       <c r="I221" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>178008.5294117647</v>
       </c>
       <c r="J221" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K221" s="14">
@@ -10132,43 +10132,43 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f t="shared" ref="A222" si="189">A221</f>
+        <f t="shared" ref="A222" si="201">A221</f>
         <v>1</v>
       </c>
       <c r="B222" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C222" s="2">
-        <f>C221+IF(K221&gt;0, (C221-C220)*IF(C221&gt;C220,1,1/2), -(C221-C220)*IF(C221&lt;C220,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.2187499999999994E-3</v>
       </c>
       <c r="D222" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.2187499999999991E-2</v>
       </c>
       <c r="E222" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>18.161676646706589</v>
       </c>
       <c r="F222" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>19.061676646706591</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.94781250000000006</v>
       </c>
       <c r="H222" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.95015371757753042</v>
       </c>
       <c r="I222" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>177808.87724550898</v>
       </c>
       <c r="J222" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K222" s="14">
@@ -10178,43 +10178,43 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
-        <f t="shared" ref="A223" si="190">A222</f>
+        <f t="shared" ref="A223" si="202">A222</f>
         <v>1</v>
       </c>
       <c r="B223" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C223" s="2">
-        <f>C222+IF(K222&gt;0, (C222-C221)*IF(C222&gt;C221,1,1/2), -(C222-C221)*IF(C222&lt;C221,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.1718749999999994E-3</v>
       </c>
       <c r="D223" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.1718749999999994E-2</v>
       </c>
       <c r="E223" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>18.335347432024172</v>
       </c>
       <c r="F223" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>19.23534743202417</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.94828124999999996</v>
       </c>
       <c r="H223" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.95058152555278519</v>
       </c>
       <c r="I223" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>177729.27870090632</v>
       </c>
       <c r="J223" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K223" s="14">
@@ -10224,43 +10224,43 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
-        <f t="shared" ref="A224" si="191">A223</f>
+        <f t="shared" ref="A224" si="203">A223</f>
         <v>1</v>
       </c>
       <c r="B224" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C224" s="2">
-        <f>C223+IF(K223&gt;0, (C223-C222)*IF(C223&gt;C222,1,1/2), -(C223-C222)*IF(C223&lt;C222,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.1484374999999994E-3</v>
       </c>
       <c r="D224" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.1484374999999992E-2</v>
       </c>
       <c r="E224" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>18.423368740515937</v>
       </c>
       <c r="F224" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>19.323368740515935</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.94851562499999997</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.95079555890719847</v>
       </c>
       <c r="I224" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>177694.69745827009</v>
       </c>
       <c r="J224" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K224" s="14">
@@ -10270,43 +10270,43 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
-        <f t="shared" ref="A225" si="192">A224</f>
+        <f t="shared" ref="A225" si="204">A224</f>
         <v>1</v>
       </c>
       <c r="B225" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C225" s="2">
-        <f>C224+IF(K224&gt;0, (C224-C223)*IF(C224&gt;C223,1,1/2), -(C224-C223)*IF(C224&lt;C223,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.1367187499999998E-3</v>
       </c>
       <c r="D225" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.1367187499999994E-2</v>
       </c>
       <c r="E225" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>18.467680608365022</v>
       </c>
       <c r="F225" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>19.367680608365021</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.94863281249999998</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.95090260794892378</v>
       </c>
       <c r="I225" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>177678.73217680608</v>
       </c>
       <c r="J225" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K225" s="14">
@@ -10316,43 +10316,43 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
-        <f t="shared" ref="A226" si="193">A225</f>
+        <f t="shared" ref="A226" si="205">A225</f>
         <v>1</v>
       </c>
       <c r="B226" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C226" s="2">
-        <f>C225+IF(K225&gt;0, (C225-C224)*IF(C225&gt;C224,1,1/2), -(C225-C224)*IF(C225&lt;C224,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.1308593749999996E-3</v>
       </c>
       <c r="D226" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.1308593749999992E-2</v>
       </c>
       <c r="E226" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>18.489912447658931</v>
       </c>
       <c r="F226" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>19.389912447658929</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.94869140625000004</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.95095614056377098</v>
       </c>
       <c r="I226" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>177671.08351969928</v>
       </c>
       <c r="J226" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K226" s="14">
@@ -10362,43 +10362,43 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
-        <f t="shared" ref="A227" si="194">A226</f>
+        <f t="shared" ref="A227" si="206">A226</f>
         <v>1</v>
       </c>
       <c r="B227" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C227" s="2">
-        <f>C226+IF(K226&gt;0, (C226-C225)*IF(C226&gt;C225,1,1/2), -(C226-C225)*IF(C226&lt;C225,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.1279296874999995E-3</v>
       </c>
       <c r="D227" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.1279296874999991E-2</v>
       </c>
       <c r="E227" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>18.501047419539137</v>
       </c>
       <c r="F227" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>19.40104741953914</v>
       </c>
       <c r="G227" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.94872070312500001</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.95098290889504777</v>
       </c>
       <c r="I227" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>177667.34302097221</v>
       </c>
       <c r="J227" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K227" s="14">
@@ -10408,43 +10408,43 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
-        <f t="shared" ref="A228" si="195">A227</f>
+        <f t="shared" ref="A228" si="207">A227</f>
         <v>1</v>
       </c>
       <c r="B228" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>0.1</v>
       </c>
       <c r="C228" s="2">
-        <f>C227+IF(K227&gt;0, (C227-C226)*IF(C227&gt;C226,1,1/2), -(C227-C226)*IF(C227&lt;C226,1,1/2))</f>
+        <f t="shared" si="191"/>
         <v>5.1264648437499994E-3</v>
       </c>
       <c r="D228" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>5.1264648437499991E-2</v>
       </c>
       <c r="E228" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>18.506619678064581</v>
       </c>
       <c r="F228" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>19.406619678064583</v>
       </c>
       <c r="G228" s="10">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>0.9487353515625</v>
       </c>
       <c r="H228" s="10">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>0.95099629356669413</v>
       </c>
       <c r="I228" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>177665.49377098415</v>
       </c>
       <c r="J228" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>177988.76369029592</v>
       </c>
       <c r="K228" s="14">
